--- a/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CB0C5EA-C31D-4D7A-9513-0CB6B026A5C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06896881-B63B-433F-9E0B-257DA8A6736B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="960" windowWidth="28410" windowHeight="14550" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1305" windowWidth="28410" windowHeight="14550" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -4069,7 +4069,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4267,12 +4267,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8360,8 +8354,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F464"/>
   <sheetViews>
-    <sheetView topLeftCell="A364" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C372" sqref="C372"/>
+    <sheetView topLeftCell="A370" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D370" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -19460,9 +19454,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -19976,15 +19968,10 @@
       <c r="D13" s="6" t="s">
         <v>1023</v>
       </c>
-      <c r="E13" s="52" t="s">
-        <v>1078</v>
-      </c>
       <c r="F13" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="G13" s="49" t="s">
-        <v>1227</v>
-      </c>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
       <c r="A14" s="6" t="s">
@@ -21503,39 +21490,43 @@
       <c r="IU27" s="31"/>
       <c r="IV27" s="31"/>
     </row>
-    <row r="28" spans="1:256" ht="60">
-      <c r="A28" s="67" t="s">
+    <row r="28" spans="1:256" ht="63">
+      <c r="A28" s="6" t="s">
         <v>1254</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="6" t="s">
         <v>1255</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-    </row>
-    <row r="29" spans="1:256" ht="30">
-      <c r="A29" s="53" t="s">
+      <c r="E28" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="49" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:256" ht="31.5">
+      <c r="A29" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="6" t="s">
         <v>1257</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E83ACB3-936E-463B-A3B3-651D49587D7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96996612-E5B3-4CAD-88CD-67084585BC63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="345" windowWidth="15090" windowHeight="16515" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="765" windowWidth="28035" windowHeight="16515" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -19686,7 +19686,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>

--- a/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD04AC44-4F0C-4881-B58E-5C4783A06F4C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA3E1DB-A93A-4822-95ED-E15DA6A99062}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17070" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="0" windowWidth="24000" windowHeight="16830" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -3514,10 +3514,6 @@
     <t>Confirm that one of appropriate directly-asserted certificate policy OID is found in certificate policies in specified certificate</t>
   </si>
   <si>
-    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID;1.3.6.1.4.1.45606.3.1.3,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID;1.3.6.1.4.1.45606.3.1.3,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID;1.3.6.1.4.1.45606.3.1.3,
-X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;1.3.6.1.4.1.45606.3.1.21,CARD_HOLDER_UNIQUE_IDENTIFIER_OID;1.3.6.1.4.1.45606.3.1.22</t>
-  </si>
-  <si>
     <t>CCC value lengths comply with Table 8 of SP 800-73-4</t>
   </si>
   <si>
@@ -3819,6 +3815,10 @@
   </si>
   <si>
     <t>OID for entryUUID</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID:1.3.6.1.4.1.45606.3.1.3,X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID:1.3.6.1.4.1.45606.3.1.3,X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID:1.3.6.1.4.1.45606.3.1.3,
+X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:1.3.6.1.4.1.45606.3.1.21,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:1.3.6.1.4.1.45606.3.1.22</t>
   </si>
 </sst>
 </file>
@@ -4681,7 +4681,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F473"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4720,10 +4720,10 @@
         <v>54</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
@@ -4734,7 +4734,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>0</v>
@@ -4765,7 +4765,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>56</v>
@@ -4891,7 +4891,7 @@
         <v>75</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>76</v>
@@ -4945,7 +4945,7 @@
         <v>82</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D15" s="45" t="s">
         <v>81</v>
@@ -4960,7 +4960,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C16" s="40" t="s">
         <v>1</v>
@@ -4991,7 +4991,7 @@
         <v>85</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D18" s="45" t="s">
         <v>56</v>
@@ -5063,7 +5063,7 @@
         <v>89</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D22" s="45" t="s">
         <v>90</v>
@@ -5207,7 +5207,7 @@
         <v>1015</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D30" s="47" t="s">
         <v>1016</v>
@@ -5348,7 +5348,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C38" s="45" t="s">
         <v>721</v>
@@ -5456,10 +5456,10 @@
         <v>54</v>
       </c>
       <c r="B44" s="45" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C44" s="40" t="s">
         <v>1183</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>1184</v>
       </c>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
@@ -5487,7 +5487,7 @@
         <v>122</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D46" s="45" t="s">
         <v>56</v>
@@ -5559,10 +5559,10 @@
         <v>126</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E50" s="45"/>
       <c r="F50" s="45" t="s">
@@ -5664,7 +5664,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C56" s="40" t="s">
         <v>2</v>
@@ -5695,7 +5695,7 @@
         <v>140</v>
       </c>
       <c r="C58" s="45" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D58" s="45" t="s">
         <v>56</v>
@@ -5767,7 +5767,7 @@
         <v>144</v>
       </c>
       <c r="C62" s="45" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D62" s="45" t="s">
         <v>119</v>
@@ -5854,7 +5854,7 @@
         <v>54</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C67" s="40" t="s">
         <v>3</v>
@@ -5885,7 +5885,7 @@
         <v>149</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D69" s="45" t="s">
         <v>56</v>
@@ -5957,7 +5957,7 @@
         <v>153</v>
       </c>
       <c r="C73" s="45" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D73" s="45" t="s">
         <v>154</v>
@@ -5975,7 +5975,7 @@
         <v>155</v>
       </c>
       <c r="C74" s="48" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D74" s="48" t="s">
         <v>157</v>
@@ -5993,7 +5993,7 @@
         <v>158</v>
       </c>
       <c r="C75" s="47" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D75" s="47" t="s">
         <v>1041</v>
@@ -6011,7 +6011,7 @@
         <v>161</v>
       </c>
       <c r="C76" s="47" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D76" s="47" t="s">
         <v>1042</v>
@@ -6029,7 +6029,7 @@
         <v>164</v>
       </c>
       <c r="C77" s="45" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D77" s="45" t="s">
         <v>160</v>
@@ -6047,7 +6047,7 @@
         <v>1043</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D78" s="48" t="s">
         <v>163</v>
@@ -6065,7 +6065,7 @@
         <v>1044</v>
       </c>
       <c r="C79" s="45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D79" s="45" t="s">
         <v>166</v>
@@ -6098,7 +6098,7 @@
         <v>54</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C81" s="40" t="s">
         <v>4</v>
@@ -6129,7 +6129,7 @@
         <v>167</v>
       </c>
       <c r="C83" s="45" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D83" s="45" t="s">
         <v>56</v>
@@ -6201,7 +6201,7 @@
         <v>171</v>
       </c>
       <c r="C87" s="45" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D87" s="45" t="s">
         <v>172</v>
@@ -6270,7 +6270,7 @@
         <v>54</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C91" s="40" t="s">
         <v>5</v>
@@ -6301,7 +6301,7 @@
         <v>179</v>
       </c>
       <c r="C93" s="45" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D93" s="45" t="s">
         <v>56</v>
@@ -6373,10 +6373,10 @@
         <v>183</v>
       </c>
       <c r="C97" s="45" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E97" s="45"/>
       <c r="F97" s="45" t="s">
@@ -6478,7 +6478,7 @@
         <v>54</v>
       </c>
       <c r="B103" s="45" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C103" s="40" t="s">
         <v>6</v>
@@ -6509,7 +6509,7 @@
         <v>188</v>
       </c>
       <c r="C105" s="45" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D105" s="45" t="s">
         <v>56</v>
@@ -6581,10 +6581,10 @@
         <v>192</v>
       </c>
       <c r="C109" s="45" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D109" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E109" s="45"/>
       <c r="F109" s="45" t="s">
@@ -6686,7 +6686,7 @@
         <v>54</v>
       </c>
       <c r="B115" s="45" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C115" s="40" t="s">
         <v>7</v>
@@ -6717,7 +6717,7 @@
         <v>197</v>
       </c>
       <c r="C117" s="45" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D117" s="45" t="s">
         <v>56</v>
@@ -6789,10 +6789,10 @@
         <v>201</v>
       </c>
       <c r="C121" s="45" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D121" s="45" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E121" s="45"/>
       <c r="F121" s="45" t="s">
@@ -6894,7 +6894,7 @@
         <v>54</v>
       </c>
       <c r="B127" s="45" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C127" s="40" t="s">
         <v>8</v>
@@ -6925,7 +6925,7 @@
         <v>206</v>
       </c>
       <c r="C129" s="45" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D129" s="45" t="s">
         <v>56</v>
@@ -6997,7 +6997,7 @@
         <v>210</v>
       </c>
       <c r="C133" s="45" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D133" s="45" t="s">
         <v>211</v>
@@ -7084,7 +7084,7 @@
         <v>54</v>
       </c>
       <c r="B138" s="45" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C138" s="40" t="s">
         <v>9</v>
@@ -7115,7 +7115,7 @@
         <v>221</v>
       </c>
       <c r="C140" s="45" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D140" s="45" t="s">
         <v>56</v>
@@ -7277,7 +7277,7 @@
         <v>1073</v>
       </c>
       <c r="C149" s="45" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D149" s="45" t="s">
         <v>233</v>
@@ -7292,7 +7292,7 @@
         <v>54</v>
       </c>
       <c r="B150" s="45" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C150" s="40" t="s">
         <v>10</v>
@@ -7306,7 +7306,7 @@
         <v>54</v>
       </c>
       <c r="B151" s="45" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C151" s="40" t="s">
         <v>11</v>
@@ -7352,7 +7352,7 @@
         <v>54</v>
       </c>
       <c r="B154" s="45" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C154" s="45" t="s">
         <v>236</v>
@@ -7368,7 +7368,7 @@
         <v>54</v>
       </c>
       <c r="B155" s="45" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C155" s="50" t="s">
         <v>14</v>
@@ -7382,7 +7382,7 @@
         <v>54</v>
       </c>
       <c r="B156" s="45" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C156" s="50" t="s">
         <v>15</v>
@@ -7396,7 +7396,7 @@
         <v>54</v>
       </c>
       <c r="B157" s="45" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C157" s="50" t="s">
         <v>16</v>
@@ -7410,7 +7410,7 @@
         <v>54</v>
       </c>
       <c r="B158" s="43" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C158" s="44" t="s">
         <v>17</v>
@@ -7424,7 +7424,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="45" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C159" s="40" t="s">
         <v>18</v>
@@ -7754,7 +7754,7 @@
         <v>54</v>
       </c>
       <c r="B178" s="45" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C178" s="52" t="s">
         <v>21</v>
@@ -8066,7 +8066,7 @@
         <v>54</v>
       </c>
       <c r="B196" s="45" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C196" s="40" t="s">
         <v>24</v>
@@ -8378,7 +8378,7 @@
         <v>54</v>
       </c>
       <c r="B214" s="45" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C214" s="52" t="s">
         <v>306</v>
@@ -8914,7 +8914,7 @@
         <v>54</v>
       </c>
       <c r="B245" s="45" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C245" s="50" t="s">
         <v>27</v>
@@ -8942,10 +8942,10 @@
         <v>54</v>
       </c>
       <c r="B247" s="45" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C247" s="53" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D247" s="45" t="s">
         <v>817</v>
@@ -8960,10 +8960,10 @@
         <v>54</v>
       </c>
       <c r="B248" s="45" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C248" s="53" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D248" s="45" t="s">
         <v>820</v>
@@ -8978,10 +8978,10 @@
         <v>54</v>
       </c>
       <c r="B249" s="45" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C249" s="53" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D249" s="45" t="s">
         <v>823</v>
@@ -8996,10 +8996,10 @@
         <v>54</v>
       </c>
       <c r="B250" s="45" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C250" s="53" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D250" s="45" t="s">
         <v>826</v>
@@ -9028,10 +9028,10 @@
         <v>54</v>
       </c>
       <c r="B252" s="45" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C252" s="45" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D252" s="45" t="s">
         <v>1071</v>
@@ -9046,10 +9046,10 @@
         <v>54</v>
       </c>
       <c r="B253" s="45" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C253" s="45" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D253" s="45" t="s">
         <v>1071</v>
@@ -9064,10 +9064,10 @@
         <v>54</v>
       </c>
       <c r="B254" s="45" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C254" s="45" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D254" s="45" t="s">
         <v>1071</v>
@@ -9082,10 +9082,10 @@
         <v>54</v>
       </c>
       <c r="B255" s="45" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C255" s="45" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D255" s="45" t="s">
         <v>1071</v>
@@ -9100,7 +9100,7 @@
         <v>54</v>
       </c>
       <c r="B256" s="45" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C256" s="40" t="s">
         <v>30</v>
@@ -9146,7 +9146,7 @@
         <v>54</v>
       </c>
       <c r="B259" s="43" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C259" s="44" t="s">
         <v>33</v>
@@ -9160,7 +9160,7 @@
         <v>54</v>
       </c>
       <c r="B260" s="45" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C260" s="40" t="s">
         <v>1</v>
@@ -9422,7 +9422,7 @@
         <v>54</v>
       </c>
       <c r="B275" s="45" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C275" s="40" t="s">
         <v>402</v>
@@ -9489,7 +9489,7 @@
         <v>408</v>
       </c>
       <c r="C279" s="53" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D279" s="45" t="s">
         <v>376</v>
@@ -9611,7 +9611,7 @@
         <v>418</v>
       </c>
       <c r="C286" s="48" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D286" s="48" t="s">
         <v>419</v>
@@ -9719,7 +9719,7 @@
         <v>429</v>
       </c>
       <c r="C292" s="45" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D292" s="45" t="s">
         <v>431</v>
@@ -9752,7 +9752,7 @@
         <v>54</v>
       </c>
       <c r="B294" s="45" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C294" s="40" t="s">
         <v>35</v>
@@ -9927,7 +9927,7 @@
         <v>444</v>
       </c>
       <c r="C304" s="48" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D304" s="48" t="s">
         <v>419</v>
@@ -10035,7 +10035,7 @@
         <v>450</v>
       </c>
       <c r="C310" s="45" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D310" s="45" t="s">
         <v>431</v>
@@ -10068,7 +10068,7 @@
         <v>54</v>
       </c>
       <c r="B312" s="45" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C312" s="40" t="s">
         <v>8</v>
@@ -10131,10 +10131,10 @@
         <v>457</v>
       </c>
       <c r="C316" s="45" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D316" s="45" t="s">
         <v>1236</v>
-      </c>
-      <c r="D316" s="45" t="s">
-        <v>1237</v>
       </c>
       <c r="E316" s="51"/>
       <c r="F316" s="45" t="s">
@@ -10221,7 +10221,7 @@
         <v>470</v>
       </c>
       <c r="C321" s="45" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D321" s="48" t="s">
         <v>419</v>
@@ -10254,7 +10254,7 @@
         <v>54</v>
       </c>
       <c r="B323" s="45" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C323" s="54" t="s">
         <v>37</v>
@@ -10429,7 +10429,7 @@
         <v>481</v>
       </c>
       <c r="C333" s="48" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D333" s="48" t="s">
         <v>419</v>
@@ -10537,7 +10537,7 @@
         <v>1081</v>
       </c>
       <c r="C339" s="48" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D339" s="48" t="s">
         <v>431</v>
@@ -10570,7 +10570,7 @@
         <v>54</v>
       </c>
       <c r="B341" s="43" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C341" s="56" t="s">
         <v>38</v>
@@ -13065,7 +13065,7 @@
         <v>701</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32" t="s">
@@ -13103,7 +13103,7 @@
         <v>704</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32" t="s">
@@ -13141,7 +13141,7 @@
         <v>710</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32" t="s">
@@ -13296,7 +13296,7 @@
         <v>113</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F17" s="32" t="s">
         <v>687</v>
@@ -13333,7 +13333,7 @@
         <v>723</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="32" t="s">
@@ -13447,7 +13447,7 @@
         <v>730</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32" t="s">
@@ -13504,7 +13504,7 @@
         <v>735</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="32" t="s">
@@ -13599,7 +13599,7 @@
         <v>741</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="32" t="s">
@@ -13618,7 +13618,7 @@
         <v>743</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="32" t="s">
@@ -13715,7 +13715,7 @@
         <v>749</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="32" t="s">
@@ -13791,7 +13791,7 @@
         <v>1086</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="29" t="s">
@@ -13810,7 +13810,7 @@
         <v>1087</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E44" s="29"/>
       <c r="F44" s="29" t="s">
@@ -13829,7 +13829,7 @@
         <v>1088</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E45" s="29"/>
       <c r="F45" s="29" t="s">
@@ -13848,7 +13848,7 @@
         <v>1089</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E46" s="29"/>
       <c r="F46" s="29" t="s">
@@ -13867,7 +13867,7 @@
         <v>1090</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="29" t="s">
@@ -13886,7 +13886,7 @@
         <v>1091</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E48" s="29"/>
       <c r="F48" s="29" t="s">
@@ -13905,7 +13905,7 @@
         <v>1092</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="29" t="s">
@@ -13924,7 +13924,7 @@
         <v>1093</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E50" s="29"/>
       <c r="F50" s="29" t="s">
@@ -13943,7 +13943,7 @@
         <v>1094</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E51" s="29"/>
       <c r="F51" s="29" t="s">
@@ -13962,7 +13962,7 @@
         <v>1095</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E52" s="29"/>
       <c r="F52" s="29" t="s">
@@ -13981,7 +13981,7 @@
         <v>1096</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E53" s="29"/>
       <c r="F53" s="29" t="s">
@@ -14000,7 +14000,7 @@
         <v>1097</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E54" s="29"/>
       <c r="F54" s="29" t="s">
@@ -14029,16 +14029,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="37" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B56" s="37" t="s">
         <v>1169</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="C56" s="37" t="s">
         <v>1170</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="D56" s="34" t="s">
         <v>1171</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>1172</v>
       </c>
       <c r="E56" s="38"/>
       <c r="F56" s="38" t="s">
@@ -14986,7 +14986,7 @@
         <v>830</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
@@ -15508,7 +15508,7 @@
         <v>1139</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
   </sheetData>
@@ -15739,13 +15739,13 @@
     </row>
     <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="64" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B11" s="64" t="s">
         <v>1100</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D11" s="63" t="s">
         <v>877</v>
@@ -15767,7 +15767,7 @@
         <v>895</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23" t="s">
@@ -15843,7 +15843,7 @@
         <v>901</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>1157</v>
@@ -15875,7 +15875,7 @@
         <v>687</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -15984,7 +15984,7 @@
         <v>912</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -16233,8 +16233,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16632,7 +16632,7 @@
         <v>1159</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>1160</v>
+        <v>1261</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>687</v>

--- a/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D866EDE-3358-4717-88B8-D4EAAC95D763}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C47DA9-54F9-4512-8A85-8D3BBCA006CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="16830" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17070" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -3646,9 +3646,6 @@
     <t>CCC Optional Tags 0xE3 and 0xB4 may be present or absent; if present are after tags listed in and are in that order</t>
   </si>
   <si>
-    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:5</t>
-  </si>
-  <si>
     <t>9.6.1.1</t>
   </si>
   <si>
@@ -3816,6 +3813,9 @@
   </si>
   <si>
     <t>CCC Tag 0xFE present and after any tags from 73-4.3 and 73-4.4</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -4623,9 +4623,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F473"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4667,7 +4665,7 @@
         <v>1197</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
@@ -4853,7 +4851,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>78</v>
@@ -5151,7 +5149,7 @@
         <v>1013</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>1014</v>
@@ -5292,7 +5290,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>719</v>
@@ -5919,7 +5917,7 @@
         <v>154</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D74" s="41" t="s">
         <v>156</v>
@@ -5937,7 +5935,7 @@
         <v>157</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1039</v>
@@ -5955,7 +5953,7 @@
         <v>160</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1040</v>
@@ -5973,7 +5971,7 @@
         <v>163</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D77" s="38" t="s">
         <v>159</v>
@@ -5991,7 +5989,7 @@
         <v>1041</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D78" s="41" t="s">
         <v>162</v>
@@ -6009,7 +6007,7 @@
         <v>1042</v>
       </c>
       <c r="C79" s="38" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D79" s="38" t="s">
         <v>165</v>
@@ -7340,7 +7338,7 @@
         <v>54</v>
       </c>
       <c r="B157" s="38" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C157" s="43" t="s">
         <v>16</v>
@@ -7368,7 +7366,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="38" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C159" s="33" t="s">
         <v>18</v>
@@ -7698,7 +7696,7 @@
         <v>54</v>
       </c>
       <c r="B178" s="38" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C178" s="45" t="s">
         <v>21</v>
@@ -8010,7 +8008,7 @@
         <v>54</v>
       </c>
       <c r="B196" s="38" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C196" s="33" t="s">
         <v>24</v>
@@ -8322,7 +8320,7 @@
         <v>54</v>
       </c>
       <c r="B214" s="38" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C214" s="45" t="s">
         <v>305</v>
@@ -8858,7 +8856,7 @@
         <v>54</v>
       </c>
       <c r="B245" s="38" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C245" s="43" t="s">
         <v>27</v>
@@ -8886,10 +8884,10 @@
         <v>54</v>
       </c>
       <c r="B247" s="38" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C247" s="46" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D247" s="38" t="s">
         <v>815</v>
@@ -8904,10 +8902,10 @@
         <v>54</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C248" s="46" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D248" s="38" t="s">
         <v>818</v>
@@ -8922,10 +8920,10 @@
         <v>54</v>
       </c>
       <c r="B249" s="38" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C249" s="46" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D249" s="38" t="s">
         <v>821</v>
@@ -8940,10 +8938,10 @@
         <v>54</v>
       </c>
       <c r="B250" s="38" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C250" s="46" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D250" s="38" t="s">
         <v>824</v>
@@ -8972,10 +8970,10 @@
         <v>54</v>
       </c>
       <c r="B252" s="38" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C252" s="38" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D252" s="38" t="s">
         <v>1069</v>
@@ -8990,10 +8988,10 @@
         <v>54</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C253" s="38" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D253" s="38" t="s">
         <v>1069</v>
@@ -9008,10 +9006,10 @@
         <v>54</v>
       </c>
       <c r="B254" s="38" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C254" s="38" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D254" s="38" t="s">
         <v>1069</v>
@@ -9026,10 +9024,10 @@
         <v>54</v>
       </c>
       <c r="B255" s="38" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C255" s="38" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D255" s="38" t="s">
         <v>1069</v>
@@ -9044,7 +9042,7 @@
         <v>54</v>
       </c>
       <c r="B256" s="38" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C256" s="33" t="s">
         <v>30</v>
@@ -9366,7 +9364,7 @@
         <v>54</v>
       </c>
       <c r="B275" s="38" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C275" s="33" t="s">
         <v>401</v>
@@ -9433,7 +9431,7 @@
         <v>407</v>
       </c>
       <c r="C279" s="46" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D279" s="38" t="s">
         <v>375</v>
@@ -9555,7 +9553,7 @@
         <v>417</v>
       </c>
       <c r="C286" s="41" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D286" s="41" t="s">
         <v>418</v>
@@ -9871,7 +9869,7 @@
         <v>443</v>
       </c>
       <c r="C304" s="41" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D304" s="41" t="s">
         <v>418</v>
@@ -10075,10 +10073,10 @@
         <v>456</v>
       </c>
       <c r="C316" s="38" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D316" s="38" t="s">
         <v>1233</v>
-      </c>
-      <c r="D316" s="38" t="s">
-        <v>1234</v>
       </c>
       <c r="E316" s="44"/>
       <c r="F316" s="38" t="s">
@@ -10165,7 +10163,7 @@
         <v>469</v>
       </c>
       <c r="C321" s="38" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D321" s="41" t="s">
         <v>418</v>
@@ -10373,7 +10371,7 @@
         <v>480</v>
       </c>
       <c r="C333" s="41" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D333" s="41" t="s">
         <v>418</v>
@@ -11553,7 +11551,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="39" t="s">
         <v>54</v>
       </c>
@@ -12147,7 +12145,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="39" t="s">
         <v>54</v>
       </c>
@@ -13026,7 +13024,7 @@
         <v>701</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
@@ -13238,7 +13236,7 @@
         <v>112</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>1204</v>
+        <v>1260</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>686</v>
@@ -14751,7 +14749,7 @@
         <v>1084</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26" t="s">
@@ -14770,7 +14768,7 @@
         <v>1085</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="26" t="s">
@@ -14789,7 +14787,7 @@
         <v>1086</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26" t="s">
@@ -14808,7 +14806,7 @@
         <v>1087</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="26" t="s">
@@ -14827,7 +14825,7 @@
         <v>1088</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26" t="s">
@@ -14846,7 +14844,7 @@
         <v>1089</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26" t="s">
@@ -14865,7 +14863,7 @@
         <v>1090</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26" t="s">
@@ -14884,7 +14882,7 @@
         <v>1091</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="26" t="s">
@@ -14903,7 +14901,7 @@
         <v>1092</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26" t="s">
@@ -14922,7 +14920,7 @@
         <v>1093</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26" t="s">
@@ -14941,7 +14939,7 @@
         <v>1094</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E53" s="26"/>
       <c r="F53" s="26" t="s">
@@ -14960,7 +14958,7 @@
         <v>1095</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E54" s="26"/>
       <c r="F54" s="26" t="s">
@@ -16964,7 +16962,7 @@
         <v>828</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
@@ -17486,7 +17484,7 @@
         <v>1137</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E50" s="62"/>
       <c r="F50" s="62"/>
@@ -17969,13 +17967,13 @@
     </row>
     <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>1098</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>875</v>
@@ -17997,7 +17995,7 @@
         <v>893</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21" t="s">
@@ -18105,7 +18103,7 @@
         <v>686</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -18214,7 +18212,7 @@
         <v>910</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -18860,7 +18858,7 @@
         <v>1157</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>686</v>

--- a/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C47DA9-54F9-4512-8A85-8D3BBCA006CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AF29BD-71EA-47F3-A208-1E3AE9C43156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17070" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -4045,7 +4045,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4231,6 +4231,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4623,21 +4626,23 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F473"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A354" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C356" sqref="C356"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="69.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="50" customWidth="1"/>
-    <col min="6" max="6" width="84.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="69.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.09765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.59765625" style="50" customWidth="1"/>
+    <col min="6" max="6" width="84.59765625" style="2" customWidth="1"/>
     <col min="7" max="1025" width="8.5" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>50</v>
       </c>
@@ -4657,7 +4662,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>54</v>
       </c>
@@ -4671,7 +4676,7 @@
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>54</v>
       </c>
@@ -4685,7 +4690,7 @@
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>54</v>
       </c>
@@ -4699,7 +4704,7 @@
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>54</v>
       </c>
@@ -4717,7 +4722,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>54</v>
       </c>
@@ -4735,7 +4740,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>54</v>
       </c>
@@ -4753,7 +4758,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>54</v>
       </c>
@@ -4771,7 +4776,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>54</v>
       </c>
@@ -4789,7 +4794,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>54</v>
       </c>
@@ -4807,7 +4812,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>54</v>
       </c>
@@ -4825,7 +4830,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>54</v>
       </c>
@@ -4843,7 +4848,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>54</v>
       </c>
@@ -4861,7 +4866,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>54</v>
       </c>
@@ -4879,7 +4884,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>54</v>
       </c>
@@ -4897,7 +4902,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>54</v>
       </c>
@@ -4911,7 +4916,7 @@
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>54</v>
       </c>
@@ -4925,7 +4930,7 @@
       <c r="E17" s="33"/>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>54</v>
       </c>
@@ -4943,7 +4948,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>54</v>
       </c>
@@ -4961,7 +4966,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>54</v>
       </c>
@@ -4979,7 +4984,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>54</v>
       </c>
@@ -4997,7 +5002,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
         <v>54</v>
       </c>
@@ -5015,7 +5020,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>54</v>
       </c>
@@ -5033,7 +5038,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
         <v>54</v>
       </c>
@@ -5051,7 +5056,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>54</v>
       </c>
@@ -5069,7 +5074,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
         <v>54</v>
       </c>
@@ -5087,7 +5092,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
         <v>54</v>
       </c>
@@ -5105,7 +5110,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
         <v>54</v>
       </c>
@@ -5123,7 +5128,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
         <v>54</v>
       </c>
@@ -5141,7 +5146,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
         <v>54</v>
       </c>
@@ -5159,7 +5164,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>54</v>
       </c>
@@ -5177,7 +5182,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
         <v>54</v>
       </c>
@@ -5195,7 +5200,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42" t="s">
         <v>54</v>
       </c>
@@ -5213,7 +5218,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="42" t="s">
         <v>54</v>
       </c>
@@ -5231,7 +5236,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42" t="s">
         <v>54</v>
       </c>
@@ -5249,7 +5254,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="42" t="s">
         <v>54</v>
       </c>
@@ -5267,7 +5272,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="39" t="s">
         <v>54</v>
       </c>
@@ -5285,7 +5290,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
         <v>54</v>
       </c>
@@ -5303,7 +5308,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
         <v>54</v>
       </c>
@@ -5321,7 +5326,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
         <v>54</v>
       </c>
@@ -5339,7 +5344,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="39" t="s">
         <v>54</v>
       </c>
@@ -5357,7 +5362,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
         <v>54</v>
       </c>
@@ -5375,7 +5380,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="39" t="s">
         <v>119</v>
       </c>
@@ -5393,7 +5398,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="39" t="s">
         <v>54</v>
       </c>
@@ -5407,7 +5412,7 @@
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="39" t="s">
         <v>54</v>
       </c>
@@ -5421,7 +5426,7 @@
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
         <v>54</v>
       </c>
@@ -5439,7 +5444,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="39" t="s">
         <v>54</v>
       </c>
@@ -5457,7 +5462,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="39" t="s">
         <v>54</v>
       </c>
@@ -5475,7 +5480,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A49" s="39" t="s">
         <v>54</v>
       </c>
@@ -5493,7 +5498,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
         <v>54</v>
       </c>
@@ -5511,7 +5516,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
         <v>54</v>
       </c>
@@ -5529,7 +5534,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="39" t="s">
         <v>54</v>
       </c>
@@ -5547,7 +5552,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="39" t="s">
         <v>54</v>
       </c>
@@ -5565,7 +5570,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="39" t="s">
         <v>54</v>
       </c>
@@ -5583,7 +5588,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
         <v>119</v>
       </c>
@@ -5601,7 +5606,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="39" t="s">
         <v>54</v>
       </c>
@@ -5615,7 +5620,7 @@
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="39" t="s">
         <v>54</v>
       </c>
@@ -5629,7 +5634,7 @@
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="39" t="s">
         <v>54</v>
       </c>
@@ -5647,7 +5652,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="39" t="s">
         <v>54</v>
       </c>
@@ -5665,7 +5670,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="39" t="s">
         <v>54</v>
       </c>
@@ -5683,7 +5688,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A61" s="39" t="s">
         <v>54</v>
       </c>
@@ -5701,7 +5706,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A62" s="39" t="s">
         <v>54</v>
       </c>
@@ -5719,7 +5724,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="39" t="s">
         <v>54</v>
       </c>
@@ -5737,7 +5742,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="39" t="s">
         <v>54</v>
       </c>
@@ -5755,7 +5760,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A65" s="39" t="s">
         <v>54</v>
       </c>
@@ -5773,7 +5778,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="39" t="s">
         <v>54</v>
       </c>
@@ -5791,7 +5796,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="39" t="s">
         <v>54</v>
       </c>
@@ -5805,7 +5810,7 @@
       <c r="E67" s="33"/>
       <c r="F67" s="33"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="39" t="s">
         <v>54</v>
       </c>
@@ -5819,7 +5824,7 @@
       <c r="E68" s="33"/>
       <c r="F68" s="33"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="39" t="s">
         <v>54</v>
       </c>
@@ -5837,7 +5842,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="39" t="s">
         <v>54</v>
       </c>
@@ -5855,7 +5860,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="39" t="s">
         <v>54</v>
       </c>
@@ -5873,7 +5878,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A72" s="39" t="s">
         <v>54</v>
       </c>
@@ -5891,7 +5896,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="39" t="s">
         <v>54</v>
       </c>
@@ -5909,7 +5914,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="39" t="s">
         <v>54</v>
       </c>
@@ -5927,7 +5932,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="42" t="s">
         <v>54</v>
       </c>
@@ -5945,7 +5950,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A76" s="42" t="s">
         <v>54</v>
       </c>
@@ -5963,7 +5968,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A77" s="39" t="s">
         <v>54</v>
       </c>
@@ -5981,7 +5986,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="39" t="s">
         <v>54</v>
       </c>
@@ -5999,7 +6004,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A79" s="39" t="s">
         <v>54</v>
       </c>
@@ -6017,7 +6022,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="39" t="s">
         <v>119</v>
       </c>
@@ -6035,7 +6040,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="39" t="s">
         <v>54</v>
       </c>
@@ -6049,7 +6054,7 @@
       <c r="E81" s="33"/>
       <c r="F81" s="33"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="39" t="s">
         <v>54</v>
       </c>
@@ -6063,7 +6068,7 @@
       <c r="E82" s="33"/>
       <c r="F82" s="33"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="39" t="s">
         <v>54</v>
       </c>
@@ -6081,7 +6086,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="39" t="s">
         <v>54</v>
       </c>
@@ -6099,7 +6104,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="39" t="s">
         <v>54</v>
       </c>
@@ -6117,7 +6122,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A86" s="39" t="s">
         <v>54</v>
       </c>
@@ -6135,7 +6140,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="39" t="s">
         <v>54</v>
       </c>
@@ -6153,7 +6158,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="39" t="s">
         <v>54</v>
       </c>
@@ -6171,7 +6176,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="39" t="s">
         <v>54</v>
       </c>
@@ -6189,7 +6194,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="39" t="s">
         <v>119</v>
       </c>
@@ -6207,7 +6212,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="39" t="s">
         <v>54</v>
       </c>
@@ -6221,7 +6226,7 @@
       <c r="E91" s="33"/>
       <c r="F91" s="33"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="39" t="s">
         <v>54</v>
       </c>
@@ -6235,7 +6240,7 @@
       <c r="E92" s="33"/>
       <c r="F92" s="33"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
         <v>54</v>
       </c>
@@ -6253,7 +6258,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="39" t="s">
         <v>54</v>
       </c>
@@ -6271,7 +6276,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="39" t="s">
         <v>54</v>
       </c>
@@ -6289,7 +6294,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A96" s="39" t="s">
         <v>54</v>
       </c>
@@ -6307,7 +6312,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A97" s="39" t="s">
         <v>119</v>
       </c>
@@ -6325,7 +6330,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="39" t="s">
         <v>54</v>
       </c>
@@ -6343,7 +6348,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="39" t="s">
         <v>54</v>
       </c>
@@ -6361,7 +6366,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="39" t="s">
         <v>54</v>
       </c>
@@ -6379,7 +6384,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="39" t="s">
         <v>54</v>
       </c>
@@ -6397,7 +6402,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="39" t="s">
         <v>119</v>
       </c>
@@ -6415,7 +6420,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="39" t="s">
         <v>54</v>
       </c>
@@ -6429,7 +6434,7 @@
       <c r="E103" s="33"/>
       <c r="F103" s="33"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="39" t="s">
         <v>54</v>
       </c>
@@ -6443,7 +6448,7 @@
       <c r="E104" s="33"/>
       <c r="F104" s="33"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="39" t="s">
         <v>54</v>
       </c>
@@ -6461,7 +6466,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="39" t="s">
         <v>54</v>
       </c>
@@ -6479,7 +6484,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="39" t="s">
         <v>54</v>
       </c>
@@ -6497,7 +6502,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A108" s="39" t="s">
         <v>54</v>
       </c>
@@ -6515,7 +6520,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A109" s="39" t="s">
         <v>54</v>
       </c>
@@ -6533,7 +6538,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="39" t="s">
         <v>54</v>
       </c>
@@ -6551,7 +6556,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="39" t="s">
         <v>54</v>
       </c>
@@ -6569,7 +6574,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="39" t="s">
         <v>54</v>
       </c>
@@ -6587,7 +6592,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="39" t="s">
         <v>54</v>
       </c>
@@ -6605,7 +6610,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="39" t="s">
         <v>119</v>
       </c>
@@ -6623,7 +6628,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="39" t="s">
         <v>54</v>
       </c>
@@ -6637,7 +6642,7 @@
       <c r="E115" s="33"/>
       <c r="F115" s="33"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="39" t="s">
         <v>54</v>
       </c>
@@ -6651,7 +6656,7 @@
       <c r="E116" s="33"/>
       <c r="F116" s="33"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="39" t="s">
         <v>54</v>
       </c>
@@ -6669,7 +6674,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="39" t="s">
         <v>54</v>
       </c>
@@ -6687,7 +6692,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="39" t="s">
         <v>54</v>
       </c>
@@ -6705,7 +6710,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A120" s="39" t="s">
         <v>54</v>
       </c>
@@ -6723,7 +6728,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A121" s="39" t="s">
         <v>54</v>
       </c>
@@ -6741,7 +6746,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="39" t="s">
         <v>54</v>
       </c>
@@ -6759,7 +6764,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="39" t="s">
         <v>54</v>
       </c>
@@ -6777,7 +6782,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="39" t="s">
         <v>54</v>
       </c>
@@ -6795,7 +6800,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="39" t="s">
         <v>54</v>
       </c>
@@ -6813,7 +6818,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="39" t="s">
         <v>119</v>
       </c>
@@ -6831,7 +6836,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="39" t="s">
         <v>54</v>
       </c>
@@ -6845,7 +6850,7 @@
       <c r="E127" s="33"/>
       <c r="F127" s="33"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="39" t="s">
         <v>54</v>
       </c>
@@ -6859,7 +6864,7 @@
       <c r="E128" s="33"/>
       <c r="F128" s="33"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="39" t="s">
         <v>54</v>
       </c>
@@ -6877,7 +6882,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="39" t="s">
         <v>54</v>
       </c>
@@ -6895,7 +6900,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="39" t="s">
         <v>54</v>
       </c>
@@ -6913,7 +6918,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A132" s="39" t="s">
         <v>54</v>
       </c>
@@ -6931,7 +6936,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="39" t="s">
         <v>54</v>
       </c>
@@ -6949,7 +6954,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="39" t="s">
         <v>54</v>
       </c>
@@ -6967,7 +6972,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="42" t="s">
         <v>54</v>
       </c>
@@ -6985,7 +6990,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="39" t="s">
         <v>54</v>
       </c>
@@ -7003,7 +7008,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A137" s="39" t="s">
         <v>54</v>
       </c>
@@ -7021,7 +7026,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="39" t="s">
         <v>54</v>
       </c>
@@ -7035,7 +7040,7 @@
       <c r="E138" s="33"/>
       <c r="F138" s="33"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="39" t="s">
         <v>54</v>
       </c>
@@ -7049,7 +7054,7 @@
       <c r="E139" s="33"/>
       <c r="F139" s="33"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="39" t="s">
         <v>54</v>
       </c>
@@ -7067,7 +7072,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="39" t="s">
         <v>54</v>
       </c>
@@ -7085,7 +7090,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="39" t="s">
         <v>54</v>
       </c>
@@ -7103,7 +7108,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A143" s="39" t="s">
         <v>54</v>
       </c>
@@ -7121,7 +7126,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="39" t="s">
         <v>54</v>
       </c>
@@ -7139,7 +7144,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="39" t="s">
         <v>54</v>
       </c>
@@ -7157,7 +7162,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="42" t="s">
         <v>54</v>
       </c>
@@ -7175,7 +7180,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="39" t="s">
         <v>54</v>
       </c>
@@ -7193,7 +7198,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A148" s="39" t="s">
         <v>54</v>
       </c>
@@ -7211,7 +7216,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="39" t="s">
         <v>119</v>
       </c>
@@ -7229,7 +7234,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="39" t="s">
         <v>54</v>
       </c>
@@ -7243,7 +7248,7 @@
       <c r="E150" s="43"/>
       <c r="F150" s="33"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="39" t="s">
         <v>54</v>
       </c>
@@ -7257,7 +7262,7 @@
       <c r="E151" s="43"/>
       <c r="F151" s="33"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="39" t="s">
         <v>54</v>
       </c>
@@ -7273,7 +7278,7 @@
       <c r="E152" s="38"/>
       <c r="F152" s="38"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="39" t="s">
         <v>54</v>
       </c>
@@ -7289,7 +7294,7 @@
       <c r="E153" s="38"/>
       <c r="F153" s="38"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="39" t="s">
         <v>54</v>
       </c>
@@ -7305,7 +7310,7 @@
       <c r="E154" s="38"/>
       <c r="F154" s="38"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="39" t="s">
         <v>54</v>
       </c>
@@ -7319,7 +7324,7 @@
       <c r="E155" s="43"/>
       <c r="F155" s="43"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="39" t="s">
         <v>54</v>
       </c>
@@ -7333,7 +7338,7 @@
       <c r="E156" s="43"/>
       <c r="F156" s="43"/>
     </row>
-    <row r="157" spans="1:6" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A157" s="39" t="s">
         <v>54</v>
       </c>
@@ -7347,7 +7352,7 @@
       <c r="E157" s="43"/>
       <c r="F157" s="43"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="39" t="s">
         <v>54</v>
       </c>
@@ -7361,7 +7366,7 @@
       <c r="E158" s="53"/>
       <c r="F158" s="43"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="32" t="s">
         <v>54</v>
       </c>
@@ -7375,7 +7380,7 @@
       <c r="E159" s="43"/>
       <c r="F159" s="43"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="32" t="s">
         <v>54</v>
       </c>
@@ -7389,7 +7394,7 @@
       <c r="E160" s="43"/>
       <c r="F160" s="43"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="32" t="s">
         <v>54</v>
       </c>
@@ -7407,7 +7412,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="32" t="s">
         <v>54</v>
       </c>
@@ -7425,7 +7430,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="32" t="s">
         <v>54</v>
       </c>
@@ -7443,7 +7448,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="32" t="s">
         <v>54</v>
       </c>
@@ -7461,7 +7466,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A165" s="39" t="s">
         <v>54</v>
       </c>
@@ -7479,7 +7484,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="39" t="s">
         <v>54</v>
       </c>
@@ -7493,7 +7498,7 @@
       <c r="E166" s="43"/>
       <c r="F166" s="43"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="32" t="s">
         <v>54</v>
       </c>
@@ -7511,7 +7516,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="39" t="s">
         <v>54</v>
       </c>
@@ -7529,7 +7534,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A169" s="39" t="s">
         <v>54</v>
       </c>
@@ -7547,7 +7552,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="39" t="s">
         <v>54</v>
       </c>
@@ -7565,7 +7570,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A171" s="39" t="s">
         <v>54</v>
       </c>
@@ -7583,7 +7588,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="39" t="s">
         <v>54</v>
       </c>
@@ -7601,7 +7606,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="39" t="s">
         <v>54</v>
       </c>
@@ -7619,7 +7624,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A174" s="39" t="s">
         <v>54</v>
       </c>
@@ -7637,7 +7642,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="39" t="s">
         <v>54</v>
       </c>
@@ -7655,7 +7660,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A176" s="39" t="s">
         <v>54</v>
       </c>
@@ -7673,7 +7678,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="39" t="s">
         <v>54</v>
       </c>
@@ -7691,7 +7696,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="39" t="s">
         <v>54</v>
       </c>
@@ -7705,7 +7710,7 @@
       <c r="E178" s="43"/>
       <c r="F178" s="43"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="39" t="s">
         <v>54</v>
       </c>
@@ -7719,7 +7724,7 @@
       <c r="E179" s="43"/>
       <c r="F179" s="43"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="39" t="s">
         <v>54</v>
       </c>
@@ -7737,7 +7742,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="39" t="s">
         <v>54</v>
       </c>
@@ -7755,7 +7760,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="39" t="s">
         <v>54</v>
       </c>
@@ -7773,7 +7778,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="39" t="s">
         <v>54</v>
       </c>
@@ -7791,7 +7796,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="39" t="s">
         <v>54</v>
       </c>
@@ -7805,7 +7810,7 @@
       <c r="E184" s="43"/>
       <c r="F184" s="43"/>
     </row>
-    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A185" s="39" t="s">
         <v>54</v>
       </c>
@@ -7823,7 +7828,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="39" t="s">
         <v>54</v>
       </c>
@@ -7841,7 +7846,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A187" s="39" t="s">
         <v>54</v>
       </c>
@@ -7859,7 +7864,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="39" t="s">
         <v>54</v>
       </c>
@@ -7877,7 +7882,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A189" s="39" t="s">
         <v>54</v>
       </c>
@@ -7895,7 +7900,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="39" t="s">
         <v>54</v>
       </c>
@@ -7913,7 +7918,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="39" t="s">
         <v>54</v>
       </c>
@@ -7931,7 +7936,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A192" s="39" t="s">
         <v>54</v>
       </c>
@@ -7949,7 +7954,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="39" t="s">
         <v>54</v>
       </c>
@@ -7967,7 +7972,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A194" s="39" t="s">
         <v>54</v>
       </c>
@@ -7985,7 +7990,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="39" t="s">
         <v>54</v>
       </c>
@@ -8003,7 +8008,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="39" t="s">
         <v>54</v>
       </c>
@@ -8017,7 +8022,7 @@
       <c r="E196" s="43"/>
       <c r="F196" s="43"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="39" t="s">
         <v>54</v>
       </c>
@@ -8031,7 +8036,7 @@
       <c r="E197" s="43"/>
       <c r="F197" s="43"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="39" t="s">
         <v>54</v>
       </c>
@@ -8049,7 +8054,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="39" t="s">
         <v>54</v>
       </c>
@@ -8067,7 +8072,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="39" t="s">
         <v>54</v>
       </c>
@@ -8085,7 +8090,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="39" t="s">
         <v>54</v>
       </c>
@@ -8103,7 +8108,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="39" t="s">
         <v>54</v>
       </c>
@@ -8117,7 +8122,7 @@
       <c r="E202" s="43"/>
       <c r="F202" s="43"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="39" t="s">
         <v>54</v>
       </c>
@@ -8135,7 +8140,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="39" t="s">
         <v>54</v>
       </c>
@@ -8153,7 +8158,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="39" t="s">
         <v>54</v>
       </c>
@@ -8171,7 +8176,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="39" t="s">
         <v>54</v>
       </c>
@@ -8189,7 +8194,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A207" s="39" t="s">
         <v>54</v>
       </c>
@@ -8207,7 +8212,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="39" t="s">
         <v>54</v>
       </c>
@@ -8225,7 +8230,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="39" t="s">
         <v>54</v>
       </c>
@@ -8243,7 +8248,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A210" s="39" t="s">
         <v>54</v>
       </c>
@@ -8261,7 +8266,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="39" t="s">
         <v>54</v>
       </c>
@@ -8279,7 +8284,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A212" s="39" t="s">
         <v>54</v>
       </c>
@@ -8297,7 +8302,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="39" t="s">
         <v>54</v>
       </c>
@@ -8315,7 +8320,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="39" t="s">
         <v>54</v>
       </c>
@@ -8329,7 +8334,7 @@
       <c r="E214" s="43"/>
       <c r="F214" s="43"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="39" t="s">
         <v>54</v>
       </c>
@@ -8343,7 +8348,7 @@
       <c r="E215" s="43"/>
       <c r="F215" s="43"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="39" t="s">
         <v>54</v>
       </c>
@@ -8361,7 +8366,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="39" t="s">
         <v>54</v>
       </c>
@@ -8379,7 +8384,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="39" t="s">
         <v>54</v>
       </c>
@@ -8397,7 +8402,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A219" s="39" t="s">
         <v>54</v>
       </c>
@@ -8415,7 +8420,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A220" s="39" t="s">
         <v>54</v>
       </c>
@@ -8433,7 +8438,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="39" t="s">
         <v>54</v>
       </c>
@@ -8451,7 +8456,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="39" t="s">
         <v>54</v>
       </c>
@@ -8469,7 +8474,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A223" s="39" t="s">
         <v>54</v>
       </c>
@@ -8487,7 +8492,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A224" s="39" t="s">
         <v>54</v>
       </c>
@@ -8505,7 +8510,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="39" t="s">
         <v>54</v>
       </c>
@@ -8523,7 +8528,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="39" t="s">
         <v>54</v>
       </c>
@@ -8541,7 +8546,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="39" t="s">
         <v>54</v>
       </c>
@@ -8559,7 +8564,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="39" t="s">
         <v>54</v>
       </c>
@@ -8573,7 +8578,7 @@
       <c r="E228" s="43"/>
       <c r="F228" s="43"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="39" t="s">
         <v>54</v>
       </c>
@@ -8591,7 +8596,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="39" t="s">
         <v>54</v>
       </c>
@@ -8609,7 +8614,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="39" t="s">
         <v>54</v>
       </c>
@@ -8627,7 +8632,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="39" t="s">
         <v>54</v>
       </c>
@@ -8645,7 +8650,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="39" t="s">
         <v>54</v>
       </c>
@@ -8663,7 +8668,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="39" t="s">
         <v>54</v>
       </c>
@@ -8681,7 +8686,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="39" t="s">
         <v>54</v>
       </c>
@@ -8699,7 +8704,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A236" s="39" t="s">
         <v>54</v>
       </c>
@@ -8717,7 +8722,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="39" t="s">
         <v>54</v>
       </c>
@@ -8735,7 +8740,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="39" t="s">
         <v>54</v>
       </c>
@@ -8753,7 +8758,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="39" t="s">
         <v>54</v>
       </c>
@@ -8771,7 +8776,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="39" t="s">
         <v>54</v>
       </c>
@@ -8785,7 +8790,7 @@
       <c r="E240" s="43"/>
       <c r="F240" s="43"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="39" t="s">
         <v>54</v>
       </c>
@@ -8803,7 +8808,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="39" t="s">
         <v>54</v>
       </c>
@@ -8821,7 +8826,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="39" t="s">
         <v>54</v>
       </c>
@@ -8835,7 +8840,7 @@
       <c r="E243" s="43"/>
       <c r="F243" s="43"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="39" t="s">
         <v>54</v>
       </c>
@@ -8851,7 +8856,7 @@
       <c r="E244" s="38"/>
       <c r="F244" s="38"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="39" t="s">
         <v>54</v>
       </c>
@@ -8865,7 +8870,7 @@
       <c r="E245" s="43"/>
       <c r="F245" s="43"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="39" t="s">
         <v>54</v>
       </c>
@@ -8879,7 +8884,7 @@
       <c r="E246" s="43"/>
       <c r="F246" s="43"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="39" t="s">
         <v>54</v>
       </c>
@@ -8897,7 +8902,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="39" t="s">
         <v>54</v>
       </c>
@@ -8915,7 +8920,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="39" t="s">
         <v>54</v>
       </c>
@@ -8933,7 +8938,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="39" t="s">
         <v>54</v>
       </c>
@@ -8951,7 +8956,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="39" t="s">
         <v>54</v>
       </c>
@@ -8965,7 +8970,7 @@
       <c r="E251" s="52"/>
       <c r="F251" s="52"/>
     </row>
-    <row r="252" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="39" t="s">
         <v>54</v>
       </c>
@@ -8983,7 +8988,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="39" t="s">
         <v>54</v>
       </c>
@@ -9001,7 +9006,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="39" t="s">
         <v>54</v>
       </c>
@@ -9019,7 +9024,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="39" t="s">
         <v>54</v>
       </c>
@@ -9037,7 +9042,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="39" t="s">
         <v>54</v>
       </c>
@@ -9051,7 +9056,7 @@
       <c r="E256" s="43"/>
       <c r="F256" s="43"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="39" t="s">
         <v>54</v>
       </c>
@@ -9067,7 +9072,7 @@
       <c r="E257" s="38"/>
       <c r="F257" s="38"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="39" t="s">
         <v>54</v>
       </c>
@@ -9083,7 +9088,7 @@
       <c r="E258" s="38"/>
       <c r="F258" s="38"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="39" t="s">
         <v>54</v>
       </c>
@@ -9097,7 +9102,7 @@
       <c r="E259" s="43"/>
       <c r="F259" s="43"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="39" t="s">
         <v>54</v>
       </c>
@@ -9111,7 +9116,7 @@
       <c r="E260" s="43"/>
       <c r="F260" s="43"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="39" t="s">
         <v>54</v>
       </c>
@@ -9125,7 +9130,7 @@
       <c r="E261" s="43"/>
       <c r="F261" s="43"/>
     </row>
-    <row r="262" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A262" s="39" t="s">
         <v>54</v>
       </c>
@@ -9143,7 +9148,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="39" t="s">
         <v>54</v>
       </c>
@@ -9161,7 +9166,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A264" s="39" t="s">
         <v>54</v>
       </c>
@@ -9179,7 +9184,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A265" s="39" t="s">
         <v>54</v>
       </c>
@@ -9197,7 +9202,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="39" t="s">
         <v>54</v>
       </c>
@@ -9215,7 +9220,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="39" t="s">
         <v>54</v>
       </c>
@@ -9233,7 +9238,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A268" s="39" t="s">
         <v>54</v>
       </c>
@@ -9251,7 +9256,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A269" s="39" t="s">
         <v>54</v>
       </c>
@@ -9269,7 +9274,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A270" s="39" t="s">
         <v>54</v>
       </c>
@@ -9287,7 +9292,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A271" s="39" t="s">
         <v>54</v>
       </c>
@@ -9305,7 +9310,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A272" s="39" t="s">
         <v>54</v>
       </c>
@@ -9323,7 +9328,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A273" s="39" t="s">
         <v>54</v>
       </c>
@@ -9341,7 +9346,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="39" t="s">
         <v>54</v>
       </c>
@@ -9359,7 +9364,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="39" t="s">
         <v>54</v>
       </c>
@@ -9373,7 +9378,7 @@
       <c r="E275" s="43"/>
       <c r="F275" s="43"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="39" t="s">
         <v>54</v>
       </c>
@@ -9387,7 +9392,7 @@
       <c r="E276" s="43"/>
       <c r="F276" s="43"/>
     </row>
-    <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A277" s="39" t="s">
         <v>54</v>
       </c>
@@ -9405,7 +9410,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="39" t="s">
         <v>54</v>
       </c>
@@ -9423,7 +9428,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A279" s="39" t="s">
         <v>54</v>
       </c>
@@ -9441,7 +9446,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A280" s="39" t="s">
         <v>54</v>
       </c>
@@ -9459,7 +9464,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="39" t="s">
         <v>54</v>
       </c>
@@ -9477,7 +9482,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="39" t="s">
         <v>54</v>
       </c>
@@ -9495,7 +9500,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="39" t="s">
         <v>54</v>
       </c>
@@ -9513,7 +9518,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A284" s="39" t="s">
         <v>54</v>
       </c>
@@ -9531,7 +9536,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="39" t="s">
         <v>54</v>
       </c>
@@ -9545,7 +9550,7 @@
       <c r="E285" s="43"/>
       <c r="F285" s="43"/>
     </row>
-    <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A286" s="39" t="s">
         <v>54</v>
       </c>
@@ -9563,7 +9568,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A287" s="39" t="s">
         <v>54</v>
       </c>
@@ -9581,7 +9586,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A288" s="39" t="s">
         <v>54</v>
       </c>
@@ -9599,7 +9604,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A289" s="39" t="s">
         <v>54</v>
       </c>
@@ -9617,7 +9622,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A290" s="39" t="s">
         <v>54</v>
       </c>
@@ -9635,7 +9640,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A291" s="60" t="s">
         <v>54</v>
       </c>
@@ -9653,7 +9658,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A292" s="39" t="s">
         <v>54</v>
       </c>
@@ -9671,7 +9676,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A293" s="39" t="s">
         <v>54</v>
       </c>
@@ -9689,7 +9694,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="39" t="s">
         <v>54</v>
       </c>
@@ -9703,7 +9708,7 @@
       <c r="E294" s="43"/>
       <c r="F294" s="43"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="39" t="s">
         <v>54</v>
       </c>
@@ -9717,7 +9722,7 @@
       <c r="E295" s="43"/>
       <c r="F295" s="43"/>
     </row>
-    <row r="296" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A296" s="39" t="s">
         <v>54</v>
       </c>
@@ -9735,7 +9740,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="39" t="s">
         <v>54</v>
       </c>
@@ -9753,7 +9758,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A298" s="39" t="s">
         <v>54</v>
       </c>
@@ -9771,7 +9776,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A299" s="39" t="s">
         <v>54</v>
       </c>
@@ -9789,7 +9794,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="39" t="s">
         <v>54</v>
       </c>
@@ -9807,7 +9812,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="39" t="s">
         <v>54</v>
       </c>
@@ -9825,7 +9830,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="39" t="s">
         <v>54</v>
       </c>
@@ -9843,7 +9848,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A303" s="39" t="s">
         <v>54</v>
       </c>
@@ -9861,7 +9866,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A304" s="39" t="s">
         <v>54</v>
       </c>
@@ -9879,7 +9884,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A305" s="39" t="s">
         <v>54</v>
       </c>
@@ -9897,7 +9902,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A306" s="39" t="s">
         <v>54</v>
       </c>
@@ -9915,7 +9920,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A307" s="39" t="s">
         <v>54</v>
       </c>
@@ -9933,7 +9938,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A308" s="39" t="s">
         <v>54</v>
       </c>
@@ -9951,7 +9956,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A309" s="60" t="s">
         <v>54</v>
       </c>
@@ -9969,7 +9974,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A310" s="39" t="s">
         <v>54</v>
       </c>
@@ -9987,7 +9992,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A311" s="39" t="s">
         <v>54</v>
       </c>
@@ -10005,7 +10010,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="39" t="s">
         <v>54</v>
       </c>
@@ -10019,7 +10024,7 @@
       <c r="E312" s="43"/>
       <c r="F312" s="43"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="39" t="s">
         <v>54</v>
       </c>
@@ -10033,7 +10038,7 @@
       <c r="E313" s="43"/>
       <c r="F313" s="43"/>
     </row>
-    <row r="314" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A314" s="39" t="s">
         <v>54</v>
       </c>
@@ -10051,7 +10056,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="39" t="s">
         <v>54</v>
       </c>
@@ -10065,7 +10070,7 @@
       <c r="E315" s="43"/>
       <c r="F315" s="43"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="39" t="s">
         <v>54</v>
       </c>
@@ -10083,7 +10088,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="39" t="s">
         <v>54</v>
       </c>
@@ -10101,7 +10106,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="39" t="s">
         <v>54</v>
       </c>
@@ -10119,7 +10124,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A319" s="39" t="s">
         <v>54</v>
       </c>
@@ -10137,7 +10142,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="39" t="s">
         <v>54</v>
       </c>
@@ -10155,7 +10160,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A321" s="39" t="s">
         <v>54</v>
       </c>
@@ -10173,7 +10178,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A322" s="39" t="s">
         <v>54</v>
       </c>
@@ -10191,7 +10196,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="39" t="s">
         <v>54</v>
       </c>
@@ -10205,7 +10210,7 @@
       <c r="E323" s="43"/>
       <c r="F323" s="43"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="39" t="s">
         <v>54</v>
       </c>
@@ -10219,7 +10224,7 @@
       <c r="E324" s="43"/>
       <c r="F324" s="43"/>
     </row>
-    <row r="325" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A325" s="39" t="s">
         <v>54</v>
       </c>
@@ -10237,7 +10242,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="39" t="s">
         <v>54</v>
       </c>
@@ -10255,7 +10260,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A327" s="39" t="s">
         <v>54</v>
       </c>
@@ -10273,7 +10278,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A328" s="39" t="s">
         <v>54</v>
       </c>
@@ -10291,7 +10296,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="39" t="s">
         <v>54</v>
       </c>
@@ -10309,7 +10314,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="39" t="s">
         <v>54</v>
       </c>
@@ -10327,7 +10332,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="39" t="s">
         <v>54</v>
       </c>
@@ -10345,7 +10350,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A332" s="39" t="s">
         <v>54</v>
       </c>
@@ -10363,7 +10368,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A333" s="39" t="s">
         <v>54</v>
       </c>
@@ -10381,7 +10386,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A334" s="39" t="s">
         <v>54</v>
       </c>
@@ -10399,7 +10404,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A335" s="39" t="s">
         <v>54</v>
       </c>
@@ -10417,7 +10422,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A336" s="39" t="s">
         <v>54</v>
       </c>
@@ -10435,7 +10440,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A337" s="39" t="s">
         <v>54</v>
       </c>
@@ -10453,7 +10458,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A338" s="60" t="s">
         <v>54</v>
       </c>
@@ -10471,7 +10476,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A339" s="39" t="s">
         <v>54</v>
       </c>
@@ -10489,7 +10494,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A340" s="39" t="s">
         <v>54</v>
       </c>
@@ -10507,7 +10512,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="39" t="s">
         <v>54</v>
       </c>
@@ -10521,7 +10526,7 @@
       <c r="E341" s="43"/>
       <c r="F341" s="43"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="39" t="s">
         <v>54</v>
       </c>
@@ -10535,7 +10540,7 @@
       <c r="E342" s="43"/>
       <c r="F342" s="43"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="39" t="s">
         <v>54</v>
       </c>
@@ -10549,7 +10554,7 @@
       <c r="E343" s="43"/>
       <c r="F343" s="43"/>
     </row>
-    <row r="344" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="75" x14ac:dyDescent="0.3">
       <c r="A344" s="39" t="s">
         <v>54</v>
       </c>
@@ -10567,7 +10572,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A345" s="39" t="s">
         <v>54</v>
       </c>
@@ -10585,7 +10590,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A346" s="39" t="s">
         <v>54</v>
       </c>
@@ -10603,7 +10608,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="39" t="s">
         <v>54</v>
       </c>
@@ -10617,7 +10622,7 @@
       <c r="E347" s="43"/>
       <c r="F347" s="43"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="39" t="s">
         <v>54</v>
       </c>
@@ -10635,7 +10640,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="39" t="s">
         <v>54</v>
       </c>
@@ -10653,7 +10658,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="39" t="s">
         <v>54</v>
       </c>
@@ -10671,7 +10676,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A351" s="39" t="s">
         <v>54</v>
       </c>
@@ -10689,7 +10694,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="39" t="s">
         <v>54</v>
       </c>
@@ -10703,7 +10708,7 @@
       <c r="E352" s="43"/>
       <c r="F352" s="43"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="39" t="s">
         <v>54</v>
       </c>
@@ -10721,7 +10726,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="39" t="s">
         <v>54</v>
       </c>
@@ -10739,7 +10744,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="39" t="s">
         <v>54</v>
       </c>
@@ -10757,15 +10762,15 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A356" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B356" s="38" t="s">
         <v>517</v>
       </c>
-      <c r="C356" s="46" t="s">
-        <v>518</v>
+      <c r="C356" s="63" t="s">
+        <v>564</v>
       </c>
       <c r="D356" s="38" t="s">
         <v>519</v>
@@ -10775,7 +10780,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="39" t="s">
         <v>54</v>
       </c>
@@ -10789,7 +10794,7 @@
       <c r="E357" s="43"/>
       <c r="F357" s="43"/>
     </row>
-    <row r="358" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A358" s="39" t="s">
         <v>54</v>
       </c>
@@ -10807,7 +10812,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A359" s="39" t="s">
         <v>54</v>
       </c>
@@ -10825,7 +10830,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A360" s="39" t="s">
         <v>54</v>
       </c>
@@ -10843,7 +10848,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="39" t="s">
         <v>54</v>
       </c>
@@ -10857,7 +10862,7 @@
       <c r="E361" s="43"/>
       <c r="F361" s="43"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="39" t="s">
         <v>54</v>
       </c>
@@ -10875,7 +10880,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="39" t="s">
         <v>54</v>
       </c>
@@ -10893,7 +10898,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="39" t="s">
         <v>54</v>
       </c>
@@ -10907,7 +10912,7 @@
       <c r="E364" s="43"/>
       <c r="F364" s="43"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="39" t="s">
         <v>54</v>
       </c>
@@ -10925,7 +10930,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="39" t="s">
         <v>54</v>
       </c>
@@ -10943,7 +10948,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A367" s="39" t="s">
         <v>54</v>
       </c>
@@ -10961,7 +10966,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="39" t="s">
         <v>54</v>
       </c>
@@ -10979,7 +10984,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="39" t="s">
         <v>54</v>
       </c>
@@ -10997,7 +11002,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="39" t="s">
         <v>54</v>
       </c>
@@ -11011,7 +11016,7 @@
       <c r="E370" s="43"/>
       <c r="F370" s="43"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="39" t="s">
         <v>54</v>
       </c>
@@ -11025,7 +11030,7 @@
       <c r="E371" s="43"/>
       <c r="F371" s="43"/>
     </row>
-    <row r="372" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="75" x14ac:dyDescent="0.3">
       <c r="A372" s="39" t="s">
         <v>54</v>
       </c>
@@ -11043,7 +11048,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A373" s="39" t="s">
         <v>54</v>
       </c>
@@ -11061,7 +11066,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="39" t="s">
         <v>54</v>
       </c>
@@ -11079,7 +11084,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="39" t="s">
         <v>54</v>
       </c>
@@ -11093,7 +11098,7 @@
       <c r="E375" s="43"/>
       <c r="F375" s="43"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="39" t="s">
         <v>54</v>
       </c>
@@ -11107,7 +11112,7 @@
       <c r="E376" s="43"/>
       <c r="F376" s="43"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="39" t="s">
         <v>54</v>
       </c>
@@ -11125,7 +11130,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="39" t="s">
         <v>54</v>
       </c>
@@ -11143,7 +11148,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A379" s="39" t="s">
         <v>54</v>
       </c>
@@ -11161,7 +11166,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A380" s="39" t="s">
         <v>54</v>
       </c>
@@ -11179,7 +11184,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A381" s="39" t="s">
         <v>54</v>
       </c>
@@ -11197,7 +11202,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A382" s="39" t="s">
         <v>54</v>
       </c>
@@ -11215,7 +11220,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="39" t="s">
         <v>54</v>
       </c>
@@ -11229,7 +11234,7 @@
       <c r="E383" s="43"/>
       <c r="F383" s="43"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="39" t="s">
         <v>54</v>
       </c>
@@ -11247,7 +11252,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="39" t="s">
         <v>54</v>
       </c>
@@ -11265,7 +11270,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="39" t="s">
         <v>54</v>
       </c>
@@ -11279,7 +11284,7 @@
       <c r="E386" s="43"/>
       <c r="F386" s="43"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="39" t="s">
         <v>54</v>
       </c>
@@ -11297,7 +11302,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="39" t="s">
         <v>54</v>
       </c>
@@ -11315,7 +11320,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A389" s="39" t="s">
         <v>54</v>
       </c>
@@ -11333,7 +11338,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="39" t="s">
         <v>54</v>
       </c>
@@ -11351,7 +11356,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="39" t="s">
         <v>54</v>
       </c>
@@ -11369,7 +11374,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="39" t="s">
         <v>54</v>
       </c>
@@ -11383,7 +11388,7 @@
       <c r="E392" s="43"/>
       <c r="F392" s="43"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="39" t="s">
         <v>54</v>
       </c>
@@ -11397,7 +11402,7 @@
       <c r="E393" s="43"/>
       <c r="F393" s="43"/>
     </row>
-    <row r="394" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A394" s="39" t="s">
         <v>54</v>
       </c>
@@ -11415,7 +11420,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A395" s="39" t="s">
         <v>54</v>
       </c>
@@ -11433,7 +11438,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="39" t="s">
         <v>54</v>
       </c>
@@ -11451,7 +11456,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="39" t="s">
         <v>54</v>
       </c>
@@ -11465,7 +11470,7 @@
       <c r="E397" s="43"/>
       <c r="F397" s="43"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="39" t="s">
         <v>54</v>
       </c>
@@ -11479,7 +11484,7 @@
       <c r="E398" s="43"/>
       <c r="F398" s="43"/>
     </row>
-    <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A399" s="39" t="s">
         <v>54</v>
       </c>
@@ -11497,7 +11502,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A400" s="39" t="s">
         <v>54</v>
       </c>
@@ -11515,7 +11520,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="39" t="s">
         <v>54</v>
       </c>
@@ -11533,7 +11538,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A402" s="39" t="s">
         <v>54</v>
       </c>
@@ -11551,7 +11556,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A403" s="39" t="s">
         <v>54</v>
       </c>
@@ -11569,7 +11574,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A404" s="39" t="s">
         <v>54</v>
       </c>
@@ -11587,7 +11592,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="39" t="s">
         <v>54</v>
       </c>
@@ -11601,7 +11606,7 @@
       <c r="E405" s="43"/>
       <c r="F405" s="43"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="39" t="s">
         <v>54</v>
       </c>
@@ -11619,7 +11624,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="39" t="s">
         <v>54</v>
       </c>
@@ -11637,7 +11642,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="39" t="s">
         <v>54</v>
       </c>
@@ -11651,7 +11656,7 @@
       <c r="E408" s="43"/>
       <c r="F408" s="43"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="39" t="s">
         <v>54</v>
       </c>
@@ -11669,7 +11674,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="39" t="s">
         <v>54</v>
       </c>
@@ -11687,7 +11692,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A411" s="39" t="s">
         <v>54</v>
       </c>
@@ -11705,7 +11710,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="39" t="s">
         <v>54</v>
       </c>
@@ -11723,7 +11728,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="39" t="s">
         <v>54</v>
       </c>
@@ -11741,7 +11746,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="39" t="s">
         <v>54</v>
       </c>
@@ -11755,7 +11760,7 @@
       <c r="E414" s="43"/>
       <c r="F414" s="43"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="39" t="s">
         <v>54</v>
       </c>
@@ -11769,7 +11774,7 @@
       <c r="E415" s="43"/>
       <c r="F415" s="43"/>
     </row>
-    <row r="416" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A416" s="39" t="s">
         <v>54</v>
       </c>
@@ -11787,7 +11792,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A417" s="39" t="s">
         <v>54</v>
       </c>
@@ -11805,7 +11810,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="39" t="s">
         <v>54</v>
       </c>
@@ -11823,7 +11828,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="39" t="s">
         <v>54</v>
       </c>
@@ -11837,7 +11842,7 @@
       <c r="E419" s="43"/>
       <c r="F419" s="43"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="39" t="s">
         <v>54</v>
       </c>
@@ -11851,7 +11856,7 @@
       <c r="E420" s="43"/>
       <c r="F420" s="43"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="39" t="s">
         <v>54</v>
       </c>
@@ -11869,7 +11874,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="39" t="s">
         <v>54</v>
       </c>
@@ -11887,7 +11892,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="39" t="s">
         <v>54</v>
       </c>
@@ -11905,7 +11910,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A424" s="39" t="s">
         <v>54</v>
       </c>
@@ -11923,7 +11928,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="39" t="s">
         <v>54</v>
       </c>
@@ -11937,7 +11942,7 @@
       <c r="E425" s="43"/>
       <c r="F425" s="43"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="39" t="s">
         <v>54</v>
       </c>
@@ -11955,7 +11960,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="39" t="s">
         <v>54</v>
       </c>
@@ -11973,7 +11978,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="39" t="s">
         <v>54</v>
       </c>
@@ -11991,7 +11996,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="39" t="s">
         <v>54</v>
       </c>
@@ -12005,7 +12010,7 @@
       <c r="E429" s="43"/>
       <c r="F429" s="43"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="39" t="s">
         <v>54</v>
       </c>
@@ -12023,7 +12028,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="39" t="s">
         <v>54</v>
       </c>
@@ -12041,7 +12046,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A432" s="39" t="s">
         <v>54</v>
       </c>
@@ -12059,7 +12064,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="39" t="s">
         <v>54</v>
       </c>
@@ -12077,7 +12082,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A434" s="39" t="s">
         <v>54</v>
       </c>
@@ -12095,7 +12100,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="39" t="s">
         <v>54</v>
       </c>
@@ -12109,7 +12114,7 @@
       <c r="E435" s="43"/>
       <c r="F435" s="43"/>
     </row>
-    <row r="436" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A436" s="39" t="s">
         <v>54</v>
       </c>
@@ -12127,7 +12132,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="39" t="s">
         <v>54</v>
       </c>
@@ -12145,7 +12150,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A438" s="39" t="s">
         <v>54</v>
       </c>
@@ -12163,7 +12168,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="39" t="s">
         <v>54</v>
       </c>
@@ -12177,7 +12182,7 @@
       <c r="E439" s="43"/>
       <c r="F439" s="43"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="39" t="s">
         <v>54</v>
       </c>
@@ -12195,7 +12200,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="39" t="s">
         <v>54</v>
       </c>
@@ -12213,7 +12218,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="39" t="s">
         <v>54</v>
       </c>
@@ -12227,7 +12232,7 @@
       <c r="E442" s="43"/>
       <c r="F442" s="43"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="39" t="s">
         <v>54</v>
       </c>
@@ -12245,7 +12250,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="39" t="s">
         <v>54</v>
       </c>
@@ -12259,7 +12264,7 @@
       <c r="E444" s="43"/>
       <c r="F444" s="43"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="39" t="s">
         <v>54</v>
       </c>
@@ -12275,7 +12280,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="39" t="s">
         <v>54</v>
       </c>
@@ -12291,7 +12296,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="39" t="s">
         <v>54</v>
       </c>
@@ -12307,7 +12312,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="39" t="s">
         <v>54</v>
       </c>
@@ -12321,7 +12326,7 @@
       <c r="E448" s="33"/>
       <c r="F448" s="43"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="39" t="s">
         <v>54</v>
       </c>
@@ -12337,7 +12342,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="39" t="s">
         <v>54</v>
       </c>
@@ -12353,7 +12358,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="39" t="s">
         <v>54</v>
       </c>
@@ -12367,7 +12372,7 @@
       <c r="E451" s="43"/>
       <c r="F451" s="43"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="39" t="s">
         <v>54</v>
       </c>
@@ -12381,7 +12386,7 @@
       <c r="E452" s="43"/>
       <c r="F452" s="43"/>
     </row>
-    <row r="453" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A453" s="39" t="s">
         <v>54</v>
       </c>
@@ -12399,7 +12404,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A454" s="39" t="s">
         <v>54</v>
       </c>
@@ -12417,7 +12422,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="39" t="s">
         <v>54</v>
       </c>
@@ -12435,7 +12440,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="39" t="s">
         <v>54</v>
       </c>
@@ -12449,7 +12454,7 @@
       <c r="E456" s="43"/>
       <c r="F456" s="43"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="39" t="s">
         <v>54</v>
       </c>
@@ -12463,7 +12468,7 @@
       <c r="E457" s="43"/>
       <c r="F457" s="43"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="39" t="s">
         <v>54</v>
       </c>
@@ -12481,7 +12486,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="39" t="s">
         <v>54</v>
       </c>
@@ -12499,7 +12504,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="39" t="s">
         <v>54</v>
       </c>
@@ -12517,7 +12522,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A461" s="39" t="s">
         <v>54</v>
       </c>
@@ -12535,7 +12540,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="39" t="s">
         <v>54</v>
       </c>
@@ -12551,7 +12556,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A463" s="39" t="s">
         <v>54</v>
       </c>
@@ -12569,7 +12574,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="39" t="s">
         <v>54</v>
       </c>
@@ -12587,7 +12592,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="39" t="s">
         <v>54</v>
       </c>
@@ -12601,7 +12606,7 @@
       <c r="E465" s="43"/>
       <c r="F465" s="43"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="39" t="s">
         <v>54</v>
       </c>
@@ -12619,7 +12624,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="39" t="s">
         <v>54</v>
       </c>
@@ -12637,7 +12642,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="39" t="s">
         <v>54</v>
       </c>
@@ -12651,7 +12656,7 @@
       <c r="E468" s="43"/>
       <c r="F468" s="43"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="39" t="s">
         <v>54</v>
       </c>
@@ -12669,7 +12674,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="39" t="s">
         <v>54</v>
       </c>
@@ -12687,7 +12692,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A471" s="39" t="s">
         <v>54</v>
       </c>
@@ -12705,7 +12710,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="39" t="s">
         <v>54</v>
       </c>
@@ -12723,7 +12728,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="39" t="s">
         <v>54</v>
       </c>
@@ -12756,18 +12761,18 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="81.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.09765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="81.3984375" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="2" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="2" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>678</v>
       </c>
@@ -12790,7 +12795,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -12809,7 +12814,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
@@ -12828,7 +12833,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -12847,7 +12852,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -12866,7 +12871,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>692</v>
       </c>
@@ -12901,20 +12906,20 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="100" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.8984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.8984375" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="2" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="2" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>678</v>
       </c>
@@ -12937,7 +12942,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>68</v>
       </c>
@@ -12956,7 +12961,7 @@
       </c>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>71</v>
       </c>
@@ -12975,7 +12980,7 @@
       </c>
       <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>74</v>
       </c>
@@ -12994,7 +12999,7 @@
       </c>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
         <v>76</v>
       </c>
@@ -13013,7 +13018,7 @@
       </c>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>78</v>
       </c>
@@ -13032,7 +13037,7 @@
       </c>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>80</v>
       </c>
@@ -13051,7 +13056,7 @@
       </c>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>704</v>
       </c>
@@ -13070,7 +13075,7 @@
       </c>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>89</v>
       </c>
@@ -13089,7 +13094,7 @@
       </c>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>107</v>
       </c>
@@ -13108,7 +13113,7 @@
       </c>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>92</v>
       </c>
@@ -13127,7 +13132,7 @@
       </c>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>95</v>
       </c>
@@ -13146,7 +13151,7 @@
       </c>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>98</v>
       </c>
@@ -13165,7 +13170,7 @@
       </c>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>101</v>
       </c>
@@ -13184,7 +13189,7 @@
       </c>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>104</v>
       </c>
@@ -13203,7 +13208,7 @@
       </c>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>110</v>
       </c>
@@ -13222,7 +13227,7 @@
       </c>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>113</v>
       </c>
@@ -13243,7 +13248,7 @@
       </c>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
         <v>717</v>
       </c>
@@ -13262,7 +13267,7 @@
       </c>
       <c r="G18" s="29"/>
     </row>
-    <row r="19" spans="1:1025" s="59" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1025" s="59" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>126</v>
       </c>
@@ -14299,7 +14304,7 @@
       <c r="AMJ19" s="58"/>
       <c r="AMK19" s="58"/>
     </row>
-    <row r="20" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>129</v>
       </c>
@@ -14318,7 +14323,7 @@
       </c>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>132</v>
       </c>
@@ -14337,7 +14342,7 @@
       </c>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>135</v>
       </c>
@@ -14356,7 +14361,7 @@
       </c>
       <c r="G22" s="29"/>
     </row>
-    <row r="23" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>138</v>
       </c>
@@ -14375,7 +14380,7 @@
       </c>
       <c r="G23" s="29"/>
     </row>
-    <row r="24" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
         <v>83</v>
       </c>
@@ -14394,7 +14399,7 @@
       </c>
       <c r="G24" s="29"/>
     </row>
-    <row r="25" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
         <v>118</v>
       </c>
@@ -14413,7 +14418,7 @@
       </c>
       <c r="G25" s="29"/>
     </row>
-    <row r="26" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>174</v>
       </c>
@@ -14432,7 +14437,7 @@
       </c>
       <c r="G26" s="29"/>
     </row>
-    <row r="27" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>177</v>
       </c>
@@ -14451,7 +14456,7 @@
       </c>
       <c r="G27" s="29"/>
     </row>
-    <row r="28" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>153</v>
       </c>
@@ -14470,7 +14475,7 @@
       </c>
       <c r="G28" s="29"/>
     </row>
-    <row r="29" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>156</v>
       </c>
@@ -14489,7 +14494,7 @@
       </c>
       <c r="G29" s="29"/>
     </row>
-    <row r="30" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>159</v>
       </c>
@@ -14508,7 +14513,7 @@
       </c>
       <c r="G30" s="29"/>
     </row>
-    <row r="31" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>162</v>
       </c>
@@ -14527,7 +14532,7 @@
       </c>
       <c r="G31" s="29"/>
     </row>
-    <row r="32" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>165</v>
       </c>
@@ -14546,7 +14551,7 @@
       </c>
       <c r="G32" s="29"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>171</v>
       </c>
@@ -14565,7 +14570,7 @@
       </c>
       <c r="G33" s="29"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>210</v>
       </c>
@@ -14584,7 +14589,7 @@
       </c>
       <c r="G34" s="29"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>213</v>
       </c>
@@ -14603,7 +14608,7 @@
       </c>
       <c r="G35" s="29"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>216</v>
       </c>
@@ -14622,7 +14627,7 @@
       </c>
       <c r="G36" s="29"/>
     </row>
-    <row r="37" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>219</v>
       </c>
@@ -14643,7 +14648,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
         <v>454</v>
       </c>
@@ -14662,7 +14667,7 @@
       </c>
       <c r="G38" s="29"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
         <v>232</v>
       </c>
@@ -14681,7 +14686,7 @@
       </c>
       <c r="G39" s="29"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="29" t="s">
         <v>226</v>
       </c>
@@ -14700,7 +14705,7 @@
       </c>
       <c r="G40" s="29"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="29" t="s">
         <v>224</v>
       </c>
@@ -14719,7 +14724,7 @@
       </c>
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A42" s="29" t="s">
         <v>231</v>
       </c>
@@ -14738,7 +14743,7 @@
       </c>
       <c r="G42" s="29"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>1005</v>
       </c>
@@ -14757,7 +14762,7 @@
       </c>
       <c r="G43" s="26"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>1007</v>
       </c>
@@ -14776,7 +14781,7 @@
       </c>
       <c r="G44" s="26"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>1009</v>
       </c>
@@ -14795,7 +14800,7 @@
       </c>
       <c r="G45" s="26"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>1012</v>
       </c>
@@ -14814,7 +14819,7 @@
       </c>
       <c r="G46" s="26"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>1014</v>
       </c>
@@ -14833,7 +14838,7 @@
       </c>
       <c r="G47" s="26"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>1020</v>
       </c>
@@ -14852,7 +14857,7 @@
       </c>
       <c r="G48" s="26"/>
     </row>
-    <row r="49" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>1023</v>
       </c>
@@ -14871,7 +14876,7 @@
       </c>
       <c r="G49" s="26"/>
     </row>
-    <row r="50" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>1026</v>
       </c>
@@ -14890,7 +14895,7 @@
       </c>
       <c r="G50" s="26"/>
     </row>
-    <row r="51" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>1029</v>
       </c>
@@ -14909,7 +14914,7 @@
       </c>
       <c r="G51" s="26"/>
     </row>
-    <row r="52" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>1039</v>
       </c>
@@ -14928,7 +14933,7 @@
       </c>
       <c r="G52" s="26"/>
     </row>
-    <row r="53" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>1040</v>
       </c>
@@ -14947,7 +14952,7 @@
       </c>
       <c r="G53" s="26"/>
     </row>
-    <row r="54" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>1060</v>
       </c>
@@ -14966,7 +14971,7 @@
       </c>
       <c r="G54" s="26"/>
     </row>
-    <row r="55" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>1067</v>
       </c>
@@ -14985,7 +14990,7 @@
       </c>
       <c r="G55" s="26"/>
     </row>
-    <row r="56" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>1166</v>
       </c>
@@ -16040,19 +16045,19 @@
       <selection activeCell="E50" sqref="A1:E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="80.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="80.8984375" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="2" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="5" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="10" customFormat="1" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>678</v>
       </c>
@@ -16324,7 +16329,7 @@
       <c r="IU1" s="9"/>
       <c r="IV1" s="9"/>
     </row>
-    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>752</v>
       </c>
@@ -16343,7 +16348,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>755</v>
       </c>
@@ -16362,7 +16367,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>757</v>
       </c>
@@ -16381,7 +16386,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>759</v>
       </c>
@@ -16400,7 +16405,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>761</v>
       </c>
@@ -16419,7 +16424,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>764</v>
       </c>
@@ -16438,7 +16443,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>767</v>
       </c>
@@ -16457,7 +16462,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>770</v>
       </c>
@@ -16476,7 +16481,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>773</v>
       </c>
@@ -16495,7 +16500,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>775</v>
       </c>
@@ -16514,7 +16519,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>777</v>
       </c>
@@ -16533,7 +16538,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>780</v>
       </c>
@@ -16552,7 +16557,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>782</v>
       </c>
@@ -16571,7 +16576,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>784</v>
       </c>
@@ -16590,7 +16595,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>973</v>
       </c>
@@ -16609,7 +16614,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>967</v>
       </c>
@@ -16628,7 +16633,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>786</v>
       </c>
@@ -16647,7 +16652,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>788</v>
       </c>
@@ -16666,7 +16671,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>790</v>
       </c>
@@ -16685,7 +16690,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>792</v>
       </c>
@@ -16704,7 +16709,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>795</v>
       </c>
@@ -16723,7 +16728,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>797</v>
       </c>
@@ -16742,7 +16747,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>799</v>
       </c>
@@ -16761,7 +16766,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>801</v>
       </c>
@@ -16780,7 +16785,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>804</v>
       </c>
@@ -16799,7 +16804,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>806</v>
       </c>
@@ -16818,7 +16823,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>809</v>
       </c>
@@ -16837,7 +16842,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>811</v>
       </c>
@@ -16856,7 +16861,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>813</v>
       </c>
@@ -16875,7 +16880,7 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>815</v>
       </c>
@@ -16894,7 +16899,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>818</v>
       </c>
@@ -16913,7 +16918,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>821</v>
       </c>
@@ -16932,7 +16937,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>824</v>
       </c>
@@ -16951,7 +16956,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>827</v>
       </c>
@@ -16970,7 +16975,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>829</v>
       </c>
@@ -16989,7 +16994,7 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>832</v>
       </c>
@@ -17008,7 +17013,7 @@
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>835</v>
       </c>
@@ -17027,7 +17032,7 @@
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>838</v>
       </c>
@@ -17046,7 +17051,7 @@
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>841</v>
       </c>
@@ -17065,7 +17070,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>845</v>
       </c>
@@ -17082,7 +17087,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>848</v>
       </c>
@@ -17099,7 +17104,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>851</v>
       </c>
@@ -17118,7 +17123,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>855</v>
       </c>
@@ -17137,7 +17142,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>859</v>
       </c>
@@ -17156,7 +17161,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>863</v>
       </c>
@@ -17173,7 +17178,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>866</v>
       </c>
@@ -17190,7 +17195,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>869</v>
       </c>
@@ -17207,7 +17212,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:256" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="30" t="s">
         <v>872</v>
       </c>
@@ -17473,7 +17478,7 @@
       <c r="IU49" s="16"/>
       <c r="IV49" s="16"/>
     </row>
-    <row r="50" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
         <v>1136</v>
       </c>
@@ -17757,21 +17762,21 @@
       <selection activeCell="G30" sqref="A1:G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="2" customWidth="1"/>
     <col min="7" max="7" width="29" style="2" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="2" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="5" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>678</v>
       </c>
@@ -17794,7 +17799,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>369</v>
       </c>
@@ -17813,7 +17818,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>372</v>
       </c>
@@ -17832,7 +17837,7 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>375</v>
       </c>
@@ -17851,7 +17856,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>389</v>
       </c>
@@ -17870,7 +17875,7 @@
       </c>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>378</v>
       </c>
@@ -17889,7 +17894,7 @@
       </c>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>381</v>
       </c>
@@ -17908,7 +17913,7 @@
       </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>384</v>
       </c>
@@ -17927,7 +17932,7 @@
       </c>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>387</v>
       </c>
@@ -17946,7 +17951,7 @@
       </c>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>392</v>
       </c>
@@ -17965,7 +17970,7 @@
       </c>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>1233</v>
       </c>
@@ -17984,7 +17989,7 @@
       </c>
       <c r="G11" s="26"/>
     </row>
-    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>892</v>
       </c>
@@ -18003,7 +18008,7 @@
       </c>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>395</v>
       </c>
@@ -18022,7 +18027,7 @@
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>397</v>
       </c>
@@ -18041,7 +18046,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>400</v>
       </c>
@@ -18060,7 +18065,7 @@
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>430</v>
       </c>
@@ -18083,7 +18088,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>433</v>
       </c>
@@ -18106,7 +18111,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>459</v>
       </c>
@@ -18125,7 +18130,7 @@
       </c>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>462</v>
       </c>
@@ -18144,7 +18149,7 @@
       </c>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>465</v>
       </c>
@@ -18163,7 +18168,7 @@
       </c>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>468</v>
       </c>
@@ -18182,7 +18187,7 @@
       </c>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>472</v>
       </c>
@@ -18201,7 +18206,7 @@
       </c>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>418</v>
       </c>
@@ -18218,7 +18223,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>1097</v>
       </c>
@@ -18235,7 +18240,7 @@
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>1075</v>
       </c>
@@ -18252,7 +18257,7 @@
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>1103</v>
       </c>
@@ -18269,7 +18274,7 @@
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>1106</v>
       </c>
@@ -18286,7 +18291,7 @@
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>1109</v>
       </c>
@@ -18303,7 +18308,7 @@
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>1112</v>
       </c>
@@ -18320,7 +18325,7 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>1115</v>
       </c>
@@ -18355,19 +18360,19 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="75.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="75.59765625" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="2" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="5" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>678</v>
       </c>
@@ -18390,7 +18395,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>911</v>
       </c>
@@ -18409,7 +18414,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>914</v>
       </c>
@@ -18428,7 +18433,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>916</v>
       </c>
@@ -18463,21 +18468,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="31.8984375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="6" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="6" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="6" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="7" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="6" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="7" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="13" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="13" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>678</v>
       </c>
@@ -18749,7 +18754,7 @@
       <c r="IU1" s="12"/>
       <c r="IV1" s="12"/>
     </row>
-    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>918</v>
       </c>
@@ -18768,7 +18773,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>559</v>
       </c>
@@ -18787,7 +18792,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>496</v>
       </c>
@@ -18806,7 +18811,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>499</v>
       </c>
@@ -18825,7 +18830,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>502</v>
       </c>
@@ -18844,7 +18849,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:256" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>505</v>
       </c>
@@ -18867,7 +18872,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="8" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>510</v>
       </c>
@@ -18886,7 +18891,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>513</v>
       </c>
@@ -18905,7 +18910,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>515</v>
       </c>
@@ -18924,7 +18929,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>516</v>
       </c>
@@ -18943,7 +18948,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:256" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:256" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>519</v>
       </c>
@@ -18962,7 +18967,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>522</v>
       </c>
@@ -18980,7 +18985,7 @@
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>528</v>
       </c>
@@ -19001,7 +19006,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="15" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>531</v>
       </c>
@@ -19020,7 +19025,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>562</v>
       </c>
@@ -19039,7 +19044,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>948</v>
       </c>
@@ -19058,7 +19063,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>594</v>
       </c>
@@ -19077,7 +19082,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>953</v>
       </c>
@@ -19100,7 +19105,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>628</v>
       </c>
@@ -19119,7 +19124,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>630</v>
       </c>
@@ -19142,7 +19147,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="22" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>961</v>
       </c>
@@ -19165,7 +19170,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="23" spans="1:256" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>980</v>
       </c>
@@ -19431,7 +19436,7 @@
       <c r="IU23" s="16"/>
       <c r="IV23" s="16"/>
     </row>
-    <row r="24" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>978</v>
       </c>
@@ -19697,7 +19702,7 @@
       <c r="IU24" s="16"/>
       <c r="IV24" s="16"/>
     </row>
-    <row r="25" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>975</v>
       </c>
@@ -19965,7 +19970,7 @@
       <c r="IU25" s="16"/>
       <c r="IV25" s="16"/>
     </row>
-    <row r="26" spans="1:256" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>976</v>
       </c>
@@ -20231,7 +20236,7 @@
       <c r="IU26" s="16"/>
       <c r="IV26" s="16"/>
     </row>
-    <row r="27" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>977</v>
       </c>
@@ -20497,7 +20502,7 @@
       <c r="IU27" s="16"/>
       <c r="IV27" s="16"/>
     </row>
-    <row r="28" spans="1:256" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:256" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>1149</v>
       </c>
@@ -20518,7 +20523,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="29" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>1151</v>
       </c>
@@ -20551,19 +20556,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="5" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="5" customWidth="1"/>
     <col min="4" max="5" width="44.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="5" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="5" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="5" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="10" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="10" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>678</v>
       </c>
@@ -20835,7 +20840,7 @@
       <c r="IU1" s="9"/>
       <c r="IV1" s="9"/>
     </row>
-    <row r="2" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1069</v>
       </c>
@@ -20856,7 +20861,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>1127</v>
       </c>
@@ -20877,7 +20882,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1130</v>
       </c>

--- a/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8874E904-9C80-4413-9F75-26BBAA36714B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB6F23A-A242-4D5D-8213-22321130FB22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1668" yWindow="0" windowWidth="20904" windowHeight="12360" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -3460,9 +3460,6 @@
     <t>CARDHOLDER_IRIS_IMAGES_OID</t>
   </si>
   <si>
-    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.7,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.7</t>
-  </si>
-  <si>
     <t>2.5.29.31</t>
   </si>
   <si>
@@ -3813,6 +3810,9 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.8,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.8.7</t>
   </si>
 </sst>
 </file>
@@ -4653,7 +4653,7 @@
         <v>53</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>996</v>
@@ -4664,10 +4664,10 @@
         <v>54</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
@@ -4678,7 +4678,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>56</v>
@@ -4835,7 +4835,7 @@
         <v>75</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>76</v>
@@ -4853,7 +4853,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>78</v>
@@ -4889,7 +4889,7 @@
         <v>81</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>80</v>
@@ -4904,7 +4904,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>1</v>
@@ -4935,7 +4935,7 @@
         <v>84</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>56</v>
@@ -5007,7 +5007,7 @@
         <v>88</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>89</v>
@@ -5151,7 +5151,7 @@
         <v>1012</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>1013</v>
@@ -5292,7 +5292,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>718</v>
@@ -5400,10 +5400,10 @@
         <v>54</v>
       </c>
       <c r="B44" s="38" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C44" s="33" t="s">
         <v>1179</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>1180</v>
       </c>
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
@@ -5431,7 +5431,7 @@
         <v>121</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D46" s="38" t="s">
         <v>56</v>
@@ -5503,10 +5503,10 @@
         <v>125</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38" t="s">
@@ -5608,7 +5608,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>2</v>
@@ -5639,7 +5639,7 @@
         <v>139</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>56</v>
@@ -5711,7 +5711,7 @@
         <v>143</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D62" s="38" t="s">
         <v>118</v>
@@ -5798,7 +5798,7 @@
         <v>54</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>3</v>
@@ -5829,7 +5829,7 @@
         <v>148</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D69" s="38" t="s">
         <v>56</v>
@@ -5901,7 +5901,7 @@
         <v>152</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D73" s="38" t="s">
         <v>153</v>
@@ -5919,7 +5919,7 @@
         <v>154</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D74" s="41" t="s">
         <v>156</v>
@@ -5937,7 +5937,7 @@
         <v>157</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>1038</v>
@@ -5955,7 +5955,7 @@
         <v>160</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>1039</v>
@@ -5973,7 +5973,7 @@
         <v>163</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D77" s="38" t="s">
         <v>159</v>
@@ -5991,7 +5991,7 @@
         <v>1040</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D78" s="41" t="s">
         <v>162</v>
@@ -6009,7 +6009,7 @@
         <v>1041</v>
       </c>
       <c r="C79" s="38" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D79" s="38" t="s">
         <v>165</v>
@@ -6042,7 +6042,7 @@
         <v>54</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>4</v>
@@ -6073,7 +6073,7 @@
         <v>166</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D83" s="38" t="s">
         <v>56</v>
@@ -6145,7 +6145,7 @@
         <v>170</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D87" s="38" t="s">
         <v>171</v>
@@ -6214,7 +6214,7 @@
         <v>54</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>5</v>
@@ -6245,7 +6245,7 @@
         <v>178</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D93" s="38" t="s">
         <v>56</v>
@@ -6317,10 +6317,10 @@
         <v>182</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D97" s="38" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="38" t="s">
@@ -6422,7 +6422,7 @@
         <v>54</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C103" s="33" t="s">
         <v>6</v>
@@ -6453,7 +6453,7 @@
         <v>187</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D105" s="38" t="s">
         <v>56</v>
@@ -6525,10 +6525,10 @@
         <v>191</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D109" s="38" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="38" t="s">
@@ -6630,7 +6630,7 @@
         <v>54</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C115" s="33" t="s">
         <v>7</v>
@@ -6661,7 +6661,7 @@
         <v>196</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D117" s="38" t="s">
         <v>56</v>
@@ -6733,10 +6733,10 @@
         <v>200</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D121" s="38" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="38" t="s">
@@ -6838,7 +6838,7 @@
         <v>54</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C127" s="33" t="s">
         <v>8</v>
@@ -6869,7 +6869,7 @@
         <v>205</v>
       </c>
       <c r="C129" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D129" s="38" t="s">
         <v>56</v>
@@ -6941,7 +6941,7 @@
         <v>209</v>
       </c>
       <c r="C133" s="38" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D133" s="38" t="s">
         <v>210</v>
@@ -7028,7 +7028,7 @@
         <v>54</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C138" s="33" t="s">
         <v>9</v>
@@ -7059,7 +7059,7 @@
         <v>220</v>
       </c>
       <c r="C140" s="38" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D140" s="38" t="s">
         <v>56</v>
@@ -7221,7 +7221,7 @@
         <v>1070</v>
       </c>
       <c r="C149" s="38" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D149" s="38" t="s">
         <v>232</v>
@@ -7236,7 +7236,7 @@
         <v>54</v>
       </c>
       <c r="B150" s="38" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C150" s="33" t="s">
         <v>10</v>
@@ -7250,7 +7250,7 @@
         <v>54</v>
       </c>
       <c r="B151" s="38" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C151" s="33" t="s">
         <v>11</v>
@@ -7296,7 +7296,7 @@
         <v>54</v>
       </c>
       <c r="B154" s="38" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C154" s="38" t="s">
         <v>235</v>
@@ -7312,7 +7312,7 @@
         <v>54</v>
       </c>
       <c r="B155" s="38" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C155" s="43" t="s">
         <v>14</v>
@@ -7326,7 +7326,7 @@
         <v>54</v>
       </c>
       <c r="B156" s="38" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C156" s="43" t="s">
         <v>15</v>
@@ -7340,7 +7340,7 @@
         <v>54</v>
       </c>
       <c r="B157" s="38" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C157" s="43" t="s">
         <v>16</v>
@@ -7354,7 +7354,7 @@
         <v>54</v>
       </c>
       <c r="B158" s="36" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C158" s="37" t="s">
         <v>17</v>
@@ -7368,7 +7368,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="38" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C159" s="33" t="s">
         <v>18</v>
@@ -7698,7 +7698,7 @@
         <v>54</v>
       </c>
       <c r="B178" s="38" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C178" s="45" t="s">
         <v>21</v>
@@ -8010,7 +8010,7 @@
         <v>54</v>
       </c>
       <c r="B196" s="38" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C196" s="33" t="s">
         <v>24</v>
@@ -8322,7 +8322,7 @@
         <v>54</v>
       </c>
       <c r="B214" s="38" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C214" s="45" t="s">
         <v>305</v>
@@ -8858,7 +8858,7 @@
         <v>54</v>
       </c>
       <c r="B245" s="38" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C245" s="43" t="s">
         <v>27</v>
@@ -8886,10 +8886,10 @@
         <v>54</v>
       </c>
       <c r="B247" s="38" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C247" s="46" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D247" s="38" t="s">
         <v>814</v>
@@ -8904,10 +8904,10 @@
         <v>54</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C248" s="46" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D248" s="38" t="s">
         <v>817</v>
@@ -8922,10 +8922,10 @@
         <v>54</v>
       </c>
       <c r="B249" s="38" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C249" s="46" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D249" s="38" t="s">
         <v>820</v>
@@ -8940,10 +8940,10 @@
         <v>54</v>
       </c>
       <c r="B250" s="38" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C250" s="46" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D250" s="38" t="s">
         <v>823</v>
@@ -8972,10 +8972,10 @@
         <v>54</v>
       </c>
       <c r="B252" s="38" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C252" s="38" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D252" s="38" t="s">
         <v>1068</v>
@@ -8990,10 +8990,10 @@
         <v>54</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C253" s="38" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D253" s="38" t="s">
         <v>1068</v>
@@ -9008,10 +9008,10 @@
         <v>54</v>
       </c>
       <c r="B254" s="38" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C254" s="38" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D254" s="38" t="s">
         <v>1068</v>
@@ -9026,10 +9026,10 @@
         <v>54</v>
       </c>
       <c r="B255" s="38" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C255" s="38" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D255" s="38" t="s">
         <v>1068</v>
@@ -9044,7 +9044,7 @@
         <v>54</v>
       </c>
       <c r="B256" s="38" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C256" s="33" t="s">
         <v>30</v>
@@ -9090,7 +9090,7 @@
         <v>54</v>
       </c>
       <c r="B259" s="36" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C259" s="37" t="s">
         <v>33</v>
@@ -9104,7 +9104,7 @@
         <v>54</v>
       </c>
       <c r="B260" s="38" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C260" s="33" t="s">
         <v>1</v>
@@ -9366,7 +9366,7 @@
         <v>54</v>
       </c>
       <c r="B275" s="38" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C275" s="33" t="s">
         <v>401</v>
@@ -9433,7 +9433,7 @@
         <v>407</v>
       </c>
       <c r="C279" s="46" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D279" s="38" t="s">
         <v>375</v>
@@ -9538,10 +9538,10 @@
         <v>54</v>
       </c>
       <c r="B285" s="38" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C285" s="43" t="s">
         <v>1152</v>
-      </c>
-      <c r="C285" s="43" t="s">
-        <v>1153</v>
       </c>
       <c r="D285" s="43"/>
       <c r="E285" s="43"/>
@@ -9555,7 +9555,7 @@
         <v>417</v>
       </c>
       <c r="C286" s="41" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D286" s="41" t="s">
         <v>418</v>
@@ -9663,7 +9663,7 @@
         <v>428</v>
       </c>
       <c r="C292" s="38" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D292" s="38" t="s">
         <v>430</v>
@@ -9696,7 +9696,7 @@
         <v>54</v>
       </c>
       <c r="B294" s="38" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C294" s="33" t="s">
         <v>35</v>
@@ -9871,7 +9871,7 @@
         <v>443</v>
       </c>
       <c r="C304" s="41" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D304" s="41" t="s">
         <v>418</v>
@@ -9979,7 +9979,7 @@
         <v>449</v>
       </c>
       <c r="C310" s="38" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D310" s="38" t="s">
         <v>430</v>
@@ -10012,7 +10012,7 @@
         <v>54</v>
       </c>
       <c r="B312" s="38" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C312" s="33" t="s">
         <v>8</v>
@@ -10075,10 +10075,10 @@
         <v>456</v>
       </c>
       <c r="C316" s="38" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D316" s="38" t="s">
         <v>1231</v>
-      </c>
-      <c r="D316" s="38" t="s">
-        <v>1232</v>
       </c>
       <c r="E316" s="44"/>
       <c r="F316" s="38" t="s">
@@ -10165,7 +10165,7 @@
         <v>469</v>
       </c>
       <c r="C321" s="38" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D321" s="41" t="s">
         <v>418</v>
@@ -10198,7 +10198,7 @@
         <v>54</v>
       </c>
       <c r="B323" s="38" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C323" s="47" t="s">
         <v>37</v>
@@ -10373,7 +10373,7 @@
         <v>480</v>
       </c>
       <c r="C333" s="41" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D333" s="41" t="s">
         <v>418</v>
@@ -10481,7 +10481,7 @@
         <v>1078</v>
       </c>
       <c r="C339" s="41" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D339" s="41" t="s">
         <v>430</v>
@@ -10514,7 +10514,7 @@
         <v>54</v>
       </c>
       <c r="B341" s="36" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C341" s="49" t="s">
         <v>38</v>
@@ -10802,7 +10802,7 @@
         <v>523</v>
       </c>
       <c r="D358" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E358" s="38"/>
       <c r="F358" s="38" t="s">
@@ -11181,7 +11181,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="39" t="s">
         <v>54</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>523</v>
       </c>
       <c r="D436" s="38" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E436" s="38"/>
       <c r="F436" s="38" t="s">
@@ -12140,7 +12140,7 @@
         <v>642</v>
       </c>
       <c r="D437" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E437" s="38"/>
       <c r="F437" s="38" t="s">
@@ -12730,7 +12730,7 @@
         <v>54</v>
       </c>
       <c r="B473" s="38" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C473" s="38" t="s">
         <v>547</v>
@@ -13007,7 +13007,7 @@
         <v>699</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="29" t="s">
@@ -13026,7 +13026,7 @@
         <v>700</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
@@ -13045,7 +13045,7 @@
         <v>701</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29" t="s">
@@ -13083,7 +13083,7 @@
         <v>707</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29" t="s">
@@ -13238,7 +13238,7 @@
         <v>112</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>685</v>
@@ -13275,7 +13275,7 @@
         <v>720</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30" t="s">
@@ -14407,7 +14407,7 @@
         <v>727</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29" t="s">
@@ -14464,7 +14464,7 @@
         <v>732</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="29" t="s">
@@ -14559,7 +14559,7 @@
         <v>738</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="29" t="s">
@@ -14578,7 +14578,7 @@
         <v>740</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="29" t="s">
@@ -14675,7 +14675,7 @@
         <v>746</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E39" s="29"/>
       <c r="F39" s="29" t="s">
@@ -14751,7 +14751,7 @@
         <v>1083</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26" t="s">
@@ -14770,7 +14770,7 @@
         <v>1084</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="26" t="s">
@@ -14789,7 +14789,7 @@
         <v>1085</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26" t="s">
@@ -14808,7 +14808,7 @@
         <v>1086</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="26" t="s">
@@ -14827,7 +14827,7 @@
         <v>1087</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26" t="s">
@@ -14846,7 +14846,7 @@
         <v>1088</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26" t="s">
@@ -14865,7 +14865,7 @@
         <v>1089</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26" t="s">
@@ -14884,7 +14884,7 @@
         <v>1090</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="26" t="s">
@@ -14903,7 +14903,7 @@
         <v>1091</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26" t="s">
@@ -14922,7 +14922,7 @@
         <v>1092</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26" t="s">
@@ -14941,7 +14941,7 @@
         <v>1093</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E53" s="26"/>
       <c r="F53" s="26" t="s">
@@ -14960,7 +14960,7 @@
         <v>1094</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E54" s="26"/>
       <c r="F54" s="26" t="s">
@@ -14989,16 +14989,16 @@
     </row>
     <row r="56" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B56" s="26" t="s">
         <v>1165</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="C56" s="26" t="s">
         <v>1166</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="D56" s="30" t="s">
         <v>1167</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>1168</v>
       </c>
       <c r="E56" s="57"/>
       <c r="F56" s="57" t="s">
@@ -16964,7 +16964,7 @@
         <v>827</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
@@ -17486,7 +17486,7 @@
         <v>1136</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E50" s="62"/>
       <c r="F50" s="62"/>
@@ -17969,13 +17969,13 @@
     </row>
     <row r="11" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>1097</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>874</v>
@@ -17997,7 +17997,7 @@
         <v>892</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21" t="s">
@@ -18073,16 +18073,16 @@
         <v>898</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>685</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -18105,7 +18105,7 @@
         <v>685</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -18214,7 +18214,7 @@
         <v>909</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -18463,8 +18463,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18859,16 +18859,16 @@
         <v>929</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>685</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -19137,7 +19137,7 @@
         <v>958</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>1142</v>
+        <v>1259</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>685</v>
@@ -19160,7 +19160,7 @@
         <v>962</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>702</v>
@@ -19715,7 +19715,7 @@
         <v>536</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -20503,13 +20503,13 @@
     </row>
     <row r="28" spans="1:256" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>918</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>523</v>
@@ -20524,13 +20524,13 @@
     </row>
     <row r="29" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>918</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>524</v>

--- a/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB6F23A-A242-4D5D-8213-22321130FB22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D396BAEA-C717-4888-99FB-1001A9B018CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1668" yWindow="0" windowWidth="20904" windowHeight="12360" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="1261">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3813,6 +3813,9 @@
   </si>
   <si>
     <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.8,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.8.7</t>
+  </si>
+  <si>
+    <t>Message digest from signed attributes bag matches the digest over Facial Image biometric data (excluding contents of digital signature field)</t>
   </si>
 </sst>
 </file>
@@ -4623,8 +4626,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F473"/>
   <sheetViews>
-    <sheetView topLeftCell="A354" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C356" sqref="C356"/>
+    <sheetView tabSelected="1" topLeftCell="A303" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C306" sqref="C306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9907,7 +9910,7 @@
         <v>445</v>
       </c>
       <c r="C306" s="41" t="s">
-        <v>422</v>
+        <v>1260</v>
       </c>
       <c r="D306" s="41" t="s">
         <v>891</v>
@@ -18463,7 +18466,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D396BAEA-C717-4888-99FB-1001A9B018CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93936CD9-E3DF-4D4D-A53B-FBD28887D32D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="1264">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3816,6 +3816,15 @@
   </si>
   <si>
     <t>Message digest from signed attributes bag matches the digest over Facial Image biometric data (excluding contents of digital signature field)</t>
+  </si>
+  <si>
+    <t>digestAlgorithm field value of the SignerInfo is in accordance with Table 3-2 of SP 800-78</t>
+  </si>
+  <si>
+    <t>The signature in the SignerInfo corresponds to the signed security object and that it is it signed with the certificate that is used to sign the CHUID.</t>
+  </si>
+  <si>
+    <t>10.4.2.8</t>
   </si>
 </sst>
 </file>
@@ -3895,7 +3904,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3958,6 +3967,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4045,7 +4060,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4234,6 +4249,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4624,10 +4648,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F473"/>
+  <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C306" sqref="C306"/>
+    <sheetView tabSelected="1" topLeftCell="A312" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D326" sqref="D326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10168,9 +10192,9 @@
         <v>469</v>
       </c>
       <c r="C321" s="38" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D321" s="41" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D321" s="38" t="s">
         <v>418</v>
       </c>
       <c r="E321" s="38"/>
@@ -10188,7 +10212,7 @@
       <c r="C322" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="D322" s="41" t="s">
+      <c r="D322" s="38" t="s">
         <v>397</v>
       </c>
       <c r="E322" s="38"/>
@@ -10196,82 +10220,82 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A323" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B323" s="38" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C323" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D323" s="43"/>
-      <c r="E323" s="43"/>
-      <c r="F323" s="43"/>
+    <row r="323" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A323" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="B323" s="65" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C323" s="64" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D323" s="65" t="s">
+        <v>400</v>
+      </c>
+      <c r="E323" s="65"/>
+      <c r="F323" s="65" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B324" s="38" t="s">
-        <v>473</v>
-      </c>
-      <c r="C324" s="48" t="s">
-        <v>34</v>
+        <v>1190</v>
+      </c>
+      <c r="C324" s="47" t="s">
+        <v>37</v>
       </c>
       <c r="D324" s="43"/>
       <c r="E324" s="43"/>
       <c r="F324" s="43"/>
     </row>
-    <row r="325" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B325" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="C325" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D325" s="43"/>
+      <c r="E325" s="43"/>
+      <c r="F325" s="43"/>
+    </row>
+    <row r="326" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="A326" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B326" s="38" t="s">
         <v>474</v>
       </c>
-      <c r="C325" s="38" t="s">
+      <c r="C326" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="D325" s="38" t="s">
+      <c r="D326" s="38" t="s">
         <v>369</v>
-      </c>
-      <c r="E325" s="38"/>
-      <c r="F325" s="38" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A326" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B326" s="38" t="s">
-        <v>475</v>
-      </c>
-      <c r="C326" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="D326" s="38" t="s">
-        <v>372</v>
       </c>
       <c r="E326" s="38"/>
       <c r="F326" s="38" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B327" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="C327" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="D327" s="41" t="s">
-        <v>389</v>
+        <v>475</v>
+      </c>
+      <c r="C327" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="D327" s="38" t="s">
+        <v>372</v>
       </c>
       <c r="E327" s="38"/>
       <c r="F327" s="38" t="s">
@@ -10283,31 +10307,31 @@
         <v>54</v>
       </c>
       <c r="B328" s="38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C328" s="41" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D328" s="41" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="E328" s="38"/>
       <c r="F328" s="38" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A329" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B329" s="38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C329" s="41" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="D329" s="41" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E329" s="38"/>
       <c r="F329" s="38" t="s">
@@ -10319,13 +10343,13 @@
         <v>54</v>
       </c>
       <c r="B330" s="38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C330" s="41" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D330" s="41" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E330" s="38"/>
       <c r="F330" s="38" t="s">
@@ -10337,31 +10361,31 @@
         <v>54</v>
       </c>
       <c r="B331" s="38" t="s">
-        <v>1076</v>
+        <v>479</v>
       </c>
       <c r="C331" s="41" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="D331" s="41" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E331" s="38"/>
       <c r="F331" s="38" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C332" s="41" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D332" s="41" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E332" s="38"/>
       <c r="F332" s="38" t="s">
@@ -10373,13 +10397,13 @@
         <v>54</v>
       </c>
       <c r="B333" s="38" t="s">
-        <v>480</v>
+        <v>1077</v>
       </c>
       <c r="C333" s="41" t="s">
-        <v>1233</v>
+        <v>416</v>
       </c>
       <c r="D333" s="41" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="E333" s="38"/>
       <c r="F333" s="38" t="s">
@@ -10391,13 +10415,13 @@
         <v>54</v>
       </c>
       <c r="B334" s="38" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C334" s="41" t="s">
-        <v>420</v>
+        <v>1233</v>
       </c>
       <c r="D334" s="41" t="s">
-        <v>1074</v>
+        <v>418</v>
       </c>
       <c r="E334" s="38"/>
       <c r="F334" s="38" t="s">
@@ -10409,49 +10433,49 @@
         <v>54</v>
       </c>
       <c r="B335" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C335" s="41" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D335" s="41" t="s">
-        <v>891</v>
+        <v>1074</v>
       </c>
       <c r="E335" s="38"/>
       <c r="F335" s="38" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A336" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B336" s="38" t="s">
-        <v>483</v>
-      </c>
-      <c r="C336" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="D336" s="38" t="s">
-        <v>395</v>
+        <v>482</v>
+      </c>
+      <c r="C336" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="D336" s="41" t="s">
+        <v>891</v>
       </c>
       <c r="E336" s="38"/>
       <c r="F336" s="38" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A337" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B337" s="38" t="s">
-        <v>484</v>
-      </c>
-      <c r="C337" s="46" t="s">
-        <v>426</v>
+        <v>483</v>
+      </c>
+      <c r="C337" s="38" t="s">
+        <v>424</v>
       </c>
       <c r="D337" s="38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E337" s="38"/>
       <c r="F337" s="38" t="s">
@@ -10459,82 +10483,86 @@
       </c>
     </row>
     <row r="338" spans="1:6" ht="60" x14ac:dyDescent="0.3">
-      <c r="A338" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B338" s="41" t="s">
+      <c r="A338" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B338" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="C338" s="46" t="s">
+        <v>426</v>
+      </c>
+      <c r="D338" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="E338" s="38"/>
+      <c r="F338" s="38" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A339" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B339" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="C338" s="41" t="s">
+      <c r="C339" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="D338" s="41" t="s">
+      <c r="D339" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="E338" s="41"/>
-      <c r="F338" s="41" t="s">
+      <c r="E339" s="41"/>
+      <c r="F339" s="41" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A339" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B339" s="38" t="s">
+    <row r="340" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A340" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B340" s="38" t="s">
         <v>1078</v>
       </c>
-      <c r="C339" s="41" t="s">
+      <c r="C340" s="41" t="s">
         <v>1199</v>
       </c>
-      <c r="D339" s="41" t="s">
+      <c r="D340" s="41" t="s">
         <v>430</v>
-      </c>
-      <c r="E339" s="38"/>
-      <c r="F339" s="38" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A340" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B340" s="38" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C340" s="46" t="s">
-        <v>432</v>
-      </c>
-      <c r="D340" s="38" t="s">
-        <v>433</v>
       </c>
       <c r="E340" s="38"/>
       <c r="F340" s="38" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A341" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B341" s="36" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C341" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D341" s="43"/>
-      <c r="E341" s="43"/>
-      <c r="F341" s="43"/>
+      <c r="B341" s="38" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C341" s="46" t="s">
+        <v>432</v>
+      </c>
+      <c r="D341" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="E341" s="38"/>
+      <c r="F341" s="38" t="s">
+        <v>1141</v>
+      </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B342" s="38">
-        <v>11.1</v>
-      </c>
-      <c r="C342" s="47" t="s">
-        <v>39</v>
+      <c r="B342" s="36" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C342" s="49" t="s">
+        <v>38</v>
       </c>
       <c r="D342" s="43"/>
       <c r="E342" s="43"/>
@@ -10544,46 +10572,42 @@
       <c r="A343" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B343" s="38" t="s">
-        <v>486</v>
-      </c>
-      <c r="C343" s="48" t="s">
-        <v>40</v>
+      <c r="B343" s="38">
+        <v>11.1</v>
+      </c>
+      <c r="C343" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="D343" s="43"/>
       <c r="E343" s="43"/>
       <c r="F343" s="43"/>
     </row>
-    <row r="344" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B344" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="C344" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D344" s="43"/>
+      <c r="E344" s="43"/>
+      <c r="F344" s="43"/>
+    </row>
+    <row r="345" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="A345" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B345" s="38" t="s">
         <v>487</v>
       </c>
-      <c r="C344" s="46" t="s">
+      <c r="C345" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="D344" s="38">
+      <c r="D345" s="38">
         <v>78.3</v>
-      </c>
-      <c r="E344" s="38"/>
-      <c r="F344" s="38" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A345" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B345" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="C345" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="D345" s="38">
-        <v>78.099999999999994</v>
       </c>
       <c r="E345" s="38"/>
       <c r="F345" s="38" t="s">
@@ -10595,10 +10619,10 @@
         <v>54</v>
       </c>
       <c r="B346" s="38" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C346" s="46" t="s">
-        <v>1080</v>
+        <v>490</v>
       </c>
       <c r="D346" s="38">
         <v>78.099999999999994</v>
@@ -10608,50 +10632,50 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A347" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B347" s="38" t="s">
-        <v>493</v>
-      </c>
-      <c r="C347" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D347" s="43"/>
-      <c r="E347" s="43"/>
-      <c r="F347" s="43"/>
+        <v>491</v>
+      </c>
+      <c r="C347" s="46" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D347" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E347" s="38"/>
+      <c r="F347" s="38" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B348" s="38" t="s">
-        <v>494</v>
-      </c>
-      <c r="C348" s="46" t="s">
-        <v>495</v>
-      </c>
-      <c r="D348" s="38" t="s">
-        <v>496</v>
-      </c>
-      <c r="E348" s="38"/>
-      <c r="F348" s="38" t="s">
-        <v>1032</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="C348" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D348" s="43"/>
+      <c r="E348" s="43"/>
+      <c r="F348" s="43"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B349" s="38" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C349" s="46" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D349" s="38" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E349" s="38"/>
       <c r="F349" s="38" t="s">
@@ -10663,81 +10687,81 @@
         <v>54</v>
       </c>
       <c r="B350" s="38" t="s">
-        <v>500</v>
-      </c>
-      <c r="C350" s="38" t="s">
-        <v>501</v>
+        <v>497</v>
+      </c>
+      <c r="C350" s="46" t="s">
+        <v>498</v>
       </c>
       <c r="D350" s="38" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E350" s="38"/>
       <c r="F350" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B351" s="38" t="s">
-        <v>503</v>
-      </c>
-      <c r="C351" s="46" t="s">
-        <v>504</v>
+        <v>500</v>
+      </c>
+      <c r="C351" s="38" t="s">
+        <v>501</v>
       </c>
       <c r="D351" s="38" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E351" s="38"/>
       <c r="F351" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A352" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B352" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="C352" s="43" t="s">
-        <v>507</v>
-      </c>
-      <c r="D352" s="43"/>
-      <c r="E352" s="43"/>
-      <c r="F352" s="43"/>
+        <v>503</v>
+      </c>
+      <c r="C352" s="46" t="s">
+        <v>504</v>
+      </c>
+      <c r="D352" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="E352" s="38"/>
+      <c r="F352" s="38" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B353" s="38" t="s">
-        <v>508</v>
-      </c>
-      <c r="C353" s="46" t="s">
-        <v>509</v>
-      </c>
-      <c r="D353" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="E353" s="38"/>
-      <c r="F353" s="38" t="s">
-        <v>1032</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="C353" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="D353" s="43"/>
+      <c r="E353" s="43"/>
+      <c r="F353" s="43"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B354" s="38" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C354" s="46" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D354" s="38" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E354" s="38"/>
       <c r="F354" s="38" t="s">
@@ -10749,81 +10773,81 @@
         <v>54</v>
       </c>
       <c r="B355" s="38" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C355" s="46" t="s">
-        <v>978</v>
+        <v>512</v>
       </c>
       <c r="D355" s="38" t="s">
-        <v>977</v>
+        <v>513</v>
       </c>
       <c r="E355" s="38"/>
       <c r="F355" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B356" s="38" t="s">
-        <v>517</v>
-      </c>
-      <c r="C356" s="63" t="s">
-        <v>563</v>
+        <v>514</v>
+      </c>
+      <c r="C356" s="46" t="s">
+        <v>978</v>
       </c>
       <c r="D356" s="38" t="s">
-        <v>518</v>
+        <v>977</v>
       </c>
       <c r="E356" s="38"/>
       <c r="F356" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A357" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B357" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="C357" s="63" t="s">
+        <v>563</v>
+      </c>
+      <c r="D357" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="E357" s="38"/>
+      <c r="F357" s="38" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B358" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="C357" s="43" t="s">
+      <c r="C358" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="D357" s="43"/>
-      <c r="E357" s="43"/>
-      <c r="F357" s="43"/>
-    </row>
-    <row r="358" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A358" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B358" s="38" t="s">
+      <c r="D358" s="43"/>
+      <c r="E358" s="43"/>
+      <c r="F358" s="43"/>
+    </row>
+    <row r="359" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="A359" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B359" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="C358" s="46" t="s">
+      <c r="C359" s="46" t="s">
         <v>523</v>
       </c>
-      <c r="D358" s="38" t="s">
+      <c r="D359" s="38" t="s">
         <v>1147</v>
-      </c>
-      <c r="E358" s="38"/>
-      <c r="F358" s="38" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A359" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B359" s="38" t="s">
-        <v>525</v>
-      </c>
-      <c r="C359" s="46" t="s">
-        <v>526</v>
-      </c>
-      <c r="D359" s="38" t="s">
-        <v>527</v>
       </c>
       <c r="E359" s="38"/>
       <c r="F359" s="38" t="s">
@@ -10835,63 +10859,63 @@
         <v>54</v>
       </c>
       <c r="B360" s="38" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C360" s="46" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D360" s="38" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E360" s="38"/>
       <c r="F360" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A361" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B361" s="38" t="s">
-        <v>531</v>
-      </c>
-      <c r="C361" s="43" t="s">
-        <v>532</v>
-      </c>
-      <c r="D361" s="43"/>
-      <c r="E361" s="43"/>
-      <c r="F361" s="43"/>
+        <v>528</v>
+      </c>
+      <c r="C361" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="D361" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="E361" s="38"/>
+      <c r="F361" s="38" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B362" s="38" t="s">
-        <v>533</v>
-      </c>
-      <c r="C362" s="46" t="s">
-        <v>534</v>
-      </c>
-      <c r="D362" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="E362" s="38"/>
-      <c r="F362" s="38" t="s">
-        <v>1032</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="C362" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="D362" s="43"/>
+      <c r="E362" s="43"/>
+      <c r="F362" s="43"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B363" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="C363" s="38" t="s">
-        <v>536</v>
+        <v>533</v>
+      </c>
+      <c r="C363" s="46" t="s">
+        <v>534</v>
       </c>
       <c r="D363" s="38" t="s">
-        <v>974</v>
+        <v>515</v>
       </c>
       <c r="E363" s="38"/>
       <c r="F363" s="38" t="s">
@@ -10903,81 +10927,81 @@
         <v>54</v>
       </c>
       <c r="B364" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="C364" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="D364" s="43"/>
-      <c r="E364" s="43"/>
-      <c r="F364" s="43"/>
+        <v>535</v>
+      </c>
+      <c r="C364" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="D364" s="38" t="s">
+        <v>974</v>
+      </c>
+      <c r="E364" s="38"/>
+      <c r="F364" s="38" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B365" s="38" t="s">
-        <v>539</v>
-      </c>
-      <c r="C365" s="46" t="s">
-        <v>509</v>
-      </c>
-      <c r="D365" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="E365" s="38"/>
-      <c r="F365" s="38" t="s">
-        <v>1032</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="C365" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="D365" s="43"/>
+      <c r="E365" s="43"/>
+      <c r="F365" s="43"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B366" s="38" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C366" s="46" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="D366" s="38" t="s">
-        <v>979</v>
-      </c>
-      <c r="E366" s="44"/>
+        <v>510</v>
+      </c>
+      <c r="E366" s="38"/>
       <c r="F366" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B367" s="38" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C367" s="46" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D367" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="E367" s="38"/>
+        <v>979</v>
+      </c>
+      <c r="E367" s="44"/>
       <c r="F367" s="38" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A368" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B368" s="38" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C368" s="46" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D368" s="38" t="s">
-        <v>977</v>
+        <v>515</v>
       </c>
       <c r="E368" s="38"/>
       <c r="F368" s="38" t="s">
@@ -10989,13 +11013,13 @@
         <v>54</v>
       </c>
       <c r="B369" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="C369" s="38" t="s">
-        <v>547</v>
+        <v>544</v>
+      </c>
+      <c r="C369" s="46" t="s">
+        <v>545</v>
       </c>
       <c r="D369" s="38" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E369" s="38"/>
       <c r="F369" s="38" t="s">
@@ -11006,78 +11030,78 @@
       <c r="A370" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B370" s="38">
-        <v>11.2</v>
-      </c>
-      <c r="C370" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D370" s="43"/>
-      <c r="E370" s="43"/>
-      <c r="F370" s="43"/>
+      <c r="B370" s="38" t="s">
+        <v>546</v>
+      </c>
+      <c r="C370" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="D370" s="38" t="s">
+        <v>975</v>
+      </c>
+      <c r="E370" s="38"/>
+      <c r="F370" s="38" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B371" s="38" t="s">
-        <v>548</v>
-      </c>
-      <c r="C371" s="43" t="s">
-        <v>40</v>
+      <c r="B371" s="38">
+        <v>11.2</v>
+      </c>
+      <c r="C371" s="33" t="s">
+        <v>42</v>
       </c>
       <c r="D371" s="43"/>
       <c r="E371" s="43"/>
       <c r="F371" s="43"/>
     </row>
-    <row r="372" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B372" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="C372" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D372" s="43"/>
+      <c r="E372" s="43"/>
+      <c r="F372" s="43"/>
+    </row>
+    <row r="373" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="A373" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B373" s="38" t="s">
         <v>549</v>
       </c>
-      <c r="C372" s="46" t="s">
+      <c r="C373" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="D372" s="38" t="s">
+      <c r="D373" s="38" t="s">
         <v>915</v>
-      </c>
-      <c r="E372" s="38"/>
-      <c r="F372" s="38" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A373" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B373" s="38" t="s">
-        <v>550</v>
-      </c>
-      <c r="C373" s="46" t="s">
-        <v>551</v>
-      </c>
-      <c r="D373" s="38" t="s">
-        <v>910</v>
       </c>
       <c r="E373" s="38"/>
       <c r="F373" s="38" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A374" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B374" s="38" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C374" s="46" t="s">
-        <v>492</v>
-      </c>
-      <c r="D374" s="38">
-        <v>78.099999999999994</v>
+        <v>551</v>
+      </c>
+      <c r="D374" s="38" t="s">
+        <v>910</v>
       </c>
       <c r="E374" s="38"/>
       <c r="F374" s="38" t="s">
@@ -11089,24 +11113,28 @@
         <v>54</v>
       </c>
       <c r="B375" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="C375" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D375" s="43"/>
-      <c r="E375" s="43"/>
-      <c r="F375" s="43"/>
+        <v>552</v>
+      </c>
+      <c r="C375" s="46" t="s">
+        <v>492</v>
+      </c>
+      <c r="D375" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E375" s="38"/>
+      <c r="F375" s="38" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B376" s="38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C376" s="43" t="s">
-        <v>555</v>
+        <v>41</v>
       </c>
       <c r="D376" s="43"/>
       <c r="E376" s="43"/>
@@ -11117,49 +11145,45 @@
         <v>54</v>
       </c>
       <c r="B377" s="38" t="s">
-        <v>556</v>
-      </c>
-      <c r="C377" s="38" t="s">
-        <v>557</v>
-      </c>
-      <c r="D377" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="E377" s="38"/>
-      <c r="F377" s="38" t="s">
-        <v>1047</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="C377" s="43" t="s">
+        <v>555</v>
+      </c>
+      <c r="D377" s="43"/>
+      <c r="E377" s="43"/>
+      <c r="F377" s="43"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B378" s="38" t="s">
-        <v>559</v>
-      </c>
-      <c r="C378" s="46" t="s">
-        <v>560</v>
+        <v>556</v>
+      </c>
+      <c r="C378" s="38" t="s">
+        <v>557</v>
       </c>
       <c r="D378" s="38" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E378" s="38"/>
       <c r="F378" s="38" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B379" s="38" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C379" s="46" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D379" s="38" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
       <c r="E379" s="38"/>
       <c r="F379" s="38" t="s">
@@ -11171,31 +11195,31 @@
         <v>54</v>
       </c>
       <c r="B380" s="38" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C380" s="46" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D380" s="38" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="E380" s="38"/>
       <c r="F380" s="38" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A381" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B381" s="38" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C381" s="46" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D381" s="38" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E381" s="38"/>
       <c r="F381" s="38" t="s">
@@ -11207,63 +11231,63 @@
         <v>54</v>
       </c>
       <c r="B382" s="38" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C382" s="46" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D382" s="38" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="E382" s="38"/>
       <c r="F382" s="38" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A383" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B383" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="C383" s="43" t="s">
-        <v>532</v>
-      </c>
-      <c r="D383" s="43"/>
-      <c r="E383" s="43"/>
-      <c r="F383" s="43"/>
+        <v>568</v>
+      </c>
+      <c r="C383" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="D383" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="E383" s="38"/>
+      <c r="F383" s="38" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B384" s="38" t="s">
-        <v>571</v>
-      </c>
-      <c r="C384" s="46" t="s">
-        <v>534</v>
-      </c>
-      <c r="D384" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="E384" s="38"/>
-      <c r="F384" s="38" t="s">
-        <v>1047</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="C384" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="D384" s="43"/>
+      <c r="E384" s="43"/>
+      <c r="F384" s="43"/>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B385" s="38" t="s">
-        <v>572</v>
-      </c>
-      <c r="C385" s="38" t="s">
-        <v>536</v>
+        <v>571</v>
+      </c>
+      <c r="C385" s="46" t="s">
+        <v>534</v>
       </c>
       <c r="D385" s="38" t="s">
-        <v>974</v>
+        <v>515</v>
       </c>
       <c r="E385" s="38"/>
       <c r="F385" s="38" t="s">
@@ -11275,81 +11299,81 @@
         <v>54</v>
       </c>
       <c r="B386" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="C386" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="D386" s="43"/>
-      <c r="E386" s="43"/>
-      <c r="F386" s="43"/>
+        <v>572</v>
+      </c>
+      <c r="C386" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="D386" s="38" t="s">
+        <v>974</v>
+      </c>
+      <c r="E386" s="38"/>
+      <c r="F386" s="38" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B387" s="38" t="s">
-        <v>574</v>
-      </c>
-      <c r="C387" s="46" t="s">
-        <v>509</v>
-      </c>
-      <c r="D387" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="E387" s="38"/>
-      <c r="F387" s="38" t="s">
-        <v>1047</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="C387" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="D387" s="43"/>
+      <c r="E387" s="43"/>
+      <c r="F387" s="43"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B388" s="38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C388" s="46" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="D388" s="38" t="s">
-        <v>979</v>
-      </c>
-      <c r="E388" s="44"/>
+        <v>510</v>
+      </c>
+      <c r="E388" s="38"/>
       <c r="F388" s="38" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B389" s="38" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C389" s="46" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="D389" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="E389" s="38"/>
+        <v>979</v>
+      </c>
+      <c r="E389" s="44"/>
       <c r="F389" s="38" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A390" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B390" s="38" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C390" s="46" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D390" s="38" t="s">
-        <v>977</v>
+        <v>515</v>
       </c>
       <c r="E390" s="38"/>
       <c r="F390" s="38" t="s">
@@ -11361,13 +11385,13 @@
         <v>54</v>
       </c>
       <c r="B391" s="38" t="s">
-        <v>579</v>
-      </c>
-      <c r="C391" s="38" t="s">
-        <v>547</v>
+        <v>578</v>
+      </c>
+      <c r="C391" s="46" t="s">
+        <v>545</v>
       </c>
       <c r="D391" s="38" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E391" s="38"/>
       <c r="F391" s="38" t="s">
@@ -11378,78 +11402,78 @@
       <c r="A392" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B392" s="38">
-        <v>11.3</v>
-      </c>
-      <c r="C392" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D392" s="43"/>
-      <c r="E392" s="43"/>
-      <c r="F392" s="43"/>
+      <c r="B392" s="38" t="s">
+        <v>579</v>
+      </c>
+      <c r="C392" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="D392" s="38" t="s">
+        <v>975</v>
+      </c>
+      <c r="E392" s="38"/>
+      <c r="F392" s="38" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B393" s="38" t="s">
-        <v>580</v>
-      </c>
-      <c r="C393" s="43" t="s">
-        <v>40</v>
+      <c r="B393" s="38">
+        <v>11.3</v>
+      </c>
+      <c r="C393" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="D393" s="43"/>
       <c r="E393" s="43"/>
       <c r="F393" s="43"/>
     </row>
-    <row r="394" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B394" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="C394" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D394" s="43"/>
+      <c r="E394" s="43"/>
+      <c r="F394" s="43"/>
+    </row>
+    <row r="395" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A395" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B395" s="38" t="s">
         <v>581</v>
       </c>
-      <c r="C394" s="46" t="s">
+      <c r="C395" s="46" t="s">
         <v>582</v>
       </c>
-      <c r="D394" s="38">
+      <c r="D395" s="38">
         <v>78.3</v>
-      </c>
-      <c r="E394" s="38"/>
-      <c r="F394" s="38" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A395" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B395" s="38" t="s">
-        <v>583</v>
-      </c>
-      <c r="C395" s="38" t="s">
-        <v>584</v>
-      </c>
-      <c r="D395" s="38" t="s">
-        <v>910</v>
       </c>
       <c r="E395" s="38"/>
       <c r="F395" s="38" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A396" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B396" s="38" t="s">
-        <v>585</v>
-      </c>
-      <c r="C396" s="46" t="s">
-        <v>586</v>
-      </c>
-      <c r="D396" s="38">
-        <v>78.099999999999994</v>
+        <v>583</v>
+      </c>
+      <c r="C396" s="38" t="s">
+        <v>584</v>
+      </c>
+      <c r="D396" s="38" t="s">
+        <v>910</v>
       </c>
       <c r="E396" s="38"/>
       <c r="F396" s="38" t="s">
@@ -11461,95 +11485,95 @@
         <v>54</v>
       </c>
       <c r="B397" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="C397" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D397" s="43"/>
-      <c r="E397" s="43"/>
-      <c r="F397" s="43"/>
+        <v>585</v>
+      </c>
+      <c r="C397" s="46" t="s">
+        <v>586</v>
+      </c>
+      <c r="D397" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E397" s="38"/>
+      <c r="F397" s="38" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B398" s="38" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C398" s="43" t="s">
-        <v>555</v>
+        <v>41</v>
       </c>
       <c r="D398" s="43"/>
       <c r="E398" s="43"/>
       <c r="F398" s="43"/>
     </row>
-    <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B399" s="38" t="s">
-        <v>589</v>
-      </c>
-      <c r="C399" s="46" t="s">
-        <v>590</v>
-      </c>
-      <c r="D399" s="38" t="s">
-        <v>947</v>
-      </c>
-      <c r="E399" s="38"/>
-      <c r="F399" s="38" t="s">
-        <v>1050</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="C399" s="43" t="s">
+        <v>555</v>
+      </c>
+      <c r="D399" s="43"/>
+      <c r="E399" s="43"/>
+      <c r="F399" s="43"/>
     </row>
     <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A400" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B400" s="38" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C400" s="46" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D400" s="38" t="s">
-        <v>593</v>
+        <v>947</v>
       </c>
       <c r="E400" s="38"/>
       <c r="F400" s="38" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A401" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B401" s="38" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C401" s="46" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D401" s="38" t="s">
-        <v>499</v>
+        <v>593</v>
       </c>
       <c r="E401" s="38"/>
       <c r="F401" s="38" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B402" s="38" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C402" s="46" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D402" s="38" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="E402" s="38"/>
       <c r="F402" s="38" t="s">
@@ -11561,13 +11585,13 @@
         <v>54</v>
       </c>
       <c r="B403" s="38" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C403" s="46" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D403" s="38" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="E403" s="38"/>
       <c r="F403" s="38" t="s">
@@ -11579,63 +11603,63 @@
         <v>54</v>
       </c>
       <c r="B404" s="38" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C404" s="46" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="D404" s="38" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="E404" s="38"/>
       <c r="F404" s="38" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A405" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B405" s="38" t="s">
-        <v>601</v>
-      </c>
-      <c r="C405" s="43" t="s">
-        <v>532</v>
-      </c>
-      <c r="D405" s="43"/>
-      <c r="E405" s="43"/>
-      <c r="F405" s="43"/>
+        <v>600</v>
+      </c>
+      <c r="C405" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="D405" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="E405" s="38"/>
+      <c r="F405" s="38" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B406" s="38" t="s">
-        <v>602</v>
-      </c>
-      <c r="C406" s="46" t="s">
-        <v>534</v>
-      </c>
-      <c r="D406" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="E406" s="38"/>
-      <c r="F406" s="38" t="s">
-        <v>1050</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="C406" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="D406" s="43"/>
+      <c r="E406" s="43"/>
+      <c r="F406" s="43"/>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B407" s="38" t="s">
-        <v>603</v>
-      </c>
-      <c r="C407" s="38" t="s">
-        <v>536</v>
+        <v>602</v>
+      </c>
+      <c r="C407" s="46" t="s">
+        <v>534</v>
       </c>
       <c r="D407" s="38" t="s">
-        <v>974</v>
+        <v>515</v>
       </c>
       <c r="E407" s="38"/>
       <c r="F407" s="38" t="s">
@@ -11647,81 +11671,81 @@
         <v>54</v>
       </c>
       <c r="B408" s="38" t="s">
-        <v>604</v>
-      </c>
-      <c r="C408" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="D408" s="43"/>
-      <c r="E408" s="43"/>
-      <c r="F408" s="43"/>
+        <v>603</v>
+      </c>
+      <c r="C408" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="D408" s="38" t="s">
+        <v>974</v>
+      </c>
+      <c r="E408" s="38"/>
+      <c r="F408" s="38" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B409" s="38" t="s">
-        <v>605</v>
-      </c>
-      <c r="C409" s="46" t="s">
-        <v>509</v>
-      </c>
-      <c r="D409" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="E409" s="38"/>
-      <c r="F409" s="38" t="s">
-        <v>1050</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="C409" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="D409" s="43"/>
+      <c r="E409" s="43"/>
+      <c r="F409" s="43"/>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B410" s="38" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C410" s="46" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="D410" s="38" t="s">
-        <v>979</v>
-      </c>
-      <c r="E410" s="44"/>
+        <v>510</v>
+      </c>
+      <c r="E410" s="38"/>
       <c r="F410" s="38" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B411" s="38" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C411" s="46" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="D411" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="E411" s="38"/>
+        <v>979</v>
+      </c>
+      <c r="E411" s="44"/>
       <c r="F411" s="38" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A412" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B412" s="38" t="s">
-        <v>608</v>
-      </c>
-      <c r="C412" s="38" t="s">
-        <v>545</v>
+        <v>607</v>
+      </c>
+      <c r="C412" s="46" t="s">
+        <v>543</v>
       </c>
       <c r="D412" s="38" t="s">
-        <v>977</v>
+        <v>515</v>
       </c>
       <c r="E412" s="38"/>
       <c r="F412" s="38" t="s">
@@ -11733,13 +11757,13 @@
         <v>54</v>
       </c>
       <c r="B413" s="38" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C413" s="38" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D413" s="38" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E413" s="38"/>
       <c r="F413" s="38" t="s">
@@ -11750,75 +11774,75 @@
       <c r="A414" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B414" s="38">
-        <v>11.4</v>
-      </c>
-      <c r="C414" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D414" s="43"/>
-      <c r="E414" s="43"/>
-      <c r="F414" s="43"/>
+      <c r="B414" s="38" t="s">
+        <v>609</v>
+      </c>
+      <c r="C414" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="D414" s="38" t="s">
+        <v>975</v>
+      </c>
+      <c r="E414" s="38"/>
+      <c r="F414" s="38" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B415" s="38" t="s">
-        <v>610</v>
-      </c>
-      <c r="C415" s="43" t="s">
-        <v>40</v>
+      <c r="B415" s="38">
+        <v>11.4</v>
+      </c>
+      <c r="C415" s="33" t="s">
+        <v>44</v>
       </c>
       <c r="D415" s="43"/>
       <c r="E415" s="43"/>
       <c r="F415" s="43"/>
     </row>
-    <row r="416" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B416" s="38" t="s">
+        <v>610</v>
+      </c>
+      <c r="C416" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D416" s="43"/>
+      <c r="E416" s="43"/>
+      <c r="F416" s="43"/>
+    </row>
+    <row r="417" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A417" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B417" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="C416" s="46" t="s">
+      <c r="C417" s="46" t="s">
         <v>582</v>
       </c>
-      <c r="D416" s="38">
+      <c r="D417" s="38">
         <v>78.3</v>
       </c>
-      <c r="E416" s="4"/>
-      <c r="F416" s="38" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A417" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B417" s="38" t="s">
-        <v>612</v>
-      </c>
-      <c r="C417" s="46" t="s">
-        <v>613</v>
-      </c>
-      <c r="D417" s="38">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E417" s="38"/>
+      <c r="E417" s="4"/>
       <c r="F417" s="38" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A418" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B418" s="38" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C418" s="46" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="D418" s="38">
         <v>78.099999999999994</v>
@@ -11833,24 +11857,28 @@
         <v>54</v>
       </c>
       <c r="B419" s="38" t="s">
-        <v>615</v>
-      </c>
-      <c r="C419" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D419" s="43"/>
-      <c r="E419" s="43"/>
-      <c r="F419" s="43"/>
+        <v>614</v>
+      </c>
+      <c r="C419" s="46" t="s">
+        <v>586</v>
+      </c>
+      <c r="D419" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E419" s="38"/>
+      <c r="F419" s="38" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B420" s="38" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C420" s="43" t="s">
-        <v>555</v>
+        <v>41</v>
       </c>
       <c r="D420" s="43"/>
       <c r="E420" s="43"/>
@@ -11861,31 +11889,27 @@
         <v>54</v>
       </c>
       <c r="B421" s="38" t="s">
-        <v>617</v>
-      </c>
-      <c r="C421" s="38" t="s">
-        <v>557</v>
-      </c>
-      <c r="D421" s="38" t="s">
-        <v>558</v>
-      </c>
-      <c r="E421" s="38"/>
-      <c r="F421" s="38" t="s">
-        <v>1053</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="C421" s="43" t="s">
+        <v>555</v>
+      </c>
+      <c r="D421" s="43"/>
+      <c r="E421" s="43"/>
+      <c r="F421" s="43"/>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B422" s="38" t="s">
-        <v>618</v>
-      </c>
-      <c r="C422" s="46" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="C422" s="38" t="s">
+        <v>557</v>
       </c>
       <c r="D422" s="38" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="E422" s="38"/>
       <c r="F422" s="38" t="s">
@@ -11897,81 +11921,81 @@
         <v>54</v>
       </c>
       <c r="B423" s="38" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C423" s="46" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D423" s="38" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E423" s="38"/>
       <c r="F423" s="38" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B424" s="38" t="s">
-        <v>622</v>
-      </c>
-      <c r="C424" s="38" t="s">
-        <v>623</v>
+        <v>620</v>
+      </c>
+      <c r="C424" s="46" t="s">
+        <v>621</v>
       </c>
       <c r="D424" s="38" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E424" s="38"/>
       <c r="F424" s="38" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A425" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B425" s="38" t="s">
-        <v>624</v>
-      </c>
-      <c r="C425" s="43" t="s">
-        <v>625</v>
-      </c>
-      <c r="D425" s="43"/>
-      <c r="E425" s="43"/>
-      <c r="F425" s="43"/>
+        <v>622</v>
+      </c>
+      <c r="C425" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="D425" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="E425" s="38"/>
+      <c r="F425" s="38" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B426" s="38" t="s">
-        <v>626</v>
-      </c>
-      <c r="C426" s="38" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D426" s="38" t="s">
-        <v>627</v>
-      </c>
-      <c r="E426" s="38"/>
-      <c r="F426" s="38" t="s">
-        <v>1053</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="C426" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="D426" s="43"/>
+      <c r="E426" s="43"/>
+      <c r="F426" s="43"/>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B427" s="38" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C427" s="38" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D427" s="38" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E427" s="38"/>
       <c r="F427" s="38" t="s">
@@ -11983,10 +12007,10 @@
         <v>54</v>
       </c>
       <c r="B428" s="38" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C428" s="38" t="s">
-        <v>631</v>
+        <v>1133</v>
       </c>
       <c r="D428" s="38" t="s">
         <v>629</v>
@@ -12001,78 +12025,78 @@
         <v>54</v>
       </c>
       <c r="B429" s="38" t="s">
-        <v>632</v>
-      </c>
-      <c r="C429" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="D429" s="43"/>
-      <c r="E429" s="43"/>
-      <c r="F429" s="43"/>
+        <v>630</v>
+      </c>
+      <c r="C429" s="38" t="s">
+        <v>631</v>
+      </c>
+      <c r="D429" s="38" t="s">
+        <v>629</v>
+      </c>
+      <c r="E429" s="38"/>
+      <c r="F429" s="38" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B430" s="38" t="s">
-        <v>633</v>
-      </c>
-      <c r="C430" s="46" t="s">
-        <v>509</v>
-      </c>
-      <c r="D430" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="E430" s="38"/>
-      <c r="F430" s="38" t="s">
-        <v>1053</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="C430" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="D430" s="43"/>
+      <c r="E430" s="43"/>
+      <c r="F430" s="43"/>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B431" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C431" s="46" t="s">
-        <v>635</v>
+        <v>509</v>
       </c>
       <c r="D431" s="38" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E431" s="38"/>
       <c r="F431" s="38" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B432" s="38" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C432" s="46" t="s">
-        <v>543</v>
+        <v>635</v>
       </c>
       <c r="D432" s="38" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E432" s="38"/>
       <c r="F432" s="38" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A433" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B433" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="C433" s="38" t="s">
-        <v>545</v>
+        <v>636</v>
+      </c>
+      <c r="C433" s="46" t="s">
+        <v>543</v>
       </c>
       <c r="D433" s="38" t="s">
         <v>515</v>
@@ -12082,136 +12106,136 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B434" s="38" t="s">
-        <v>638</v>
-      </c>
-      <c r="C434" s="46" t="s">
-        <v>597</v>
+        <v>637</v>
+      </c>
+      <c r="C434" s="38" t="s">
+        <v>545</v>
       </c>
       <c r="D434" s="38" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E434" s="38"/>
       <c r="F434" s="38" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A435" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B435" s="38" t="s">
+        <v>638</v>
+      </c>
+      <c r="C435" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="D435" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="E435" s="38"/>
+      <c r="F435" s="38" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A436" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B436" s="38" t="s">
         <v>639</v>
       </c>
-      <c r="C435" s="43" t="s">
+      <c r="C436" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="D435" s="43"/>
-      <c r="E435" s="43"/>
-      <c r="F435" s="43"/>
-    </row>
-    <row r="436" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A436" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B436" s="38" t="s">
+      <c r="D436" s="43"/>
+      <c r="E436" s="43"/>
+      <c r="F436" s="43"/>
+    </row>
+    <row r="437" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="A437" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B437" s="38" t="s">
         <v>640</v>
       </c>
-      <c r="C436" s="46" t="s">
+      <c r="C437" s="46" t="s">
         <v>523</v>
       </c>
-      <c r="D436" s="38" t="s">
+      <c r="D437" s="38" t="s">
         <v>1147</v>
-      </c>
-      <c r="E436" s="38"/>
-      <c r="F436" s="38" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A437" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B437" s="38" t="s">
-        <v>641</v>
-      </c>
-      <c r="C437" s="46" t="s">
-        <v>642</v>
-      </c>
-      <c r="D437" s="38" t="s">
-        <v>1149</v>
       </c>
       <c r="E437" s="38"/>
       <c r="F437" s="38" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B438" s="38" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C438" s="46" t="s">
-        <v>599</v>
+        <v>642</v>
       </c>
       <c r="D438" s="38" t="s">
-        <v>530</v>
+        <v>1149</v>
       </c>
       <c r="E438" s="38"/>
       <c r="F438" s="38" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A439" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B439" s="38" t="s">
-        <v>644</v>
-      </c>
-      <c r="C439" s="43" t="s">
-        <v>532</v>
-      </c>
-      <c r="D439" s="43"/>
-      <c r="E439" s="43"/>
-      <c r="F439" s="43"/>
+        <v>643</v>
+      </c>
+      <c r="C439" s="46" t="s">
+        <v>599</v>
+      </c>
+      <c r="D439" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="E439" s="38"/>
+      <c r="F439" s="38" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B440" s="38" t="s">
-        <v>645</v>
-      </c>
-      <c r="C440" s="46" t="s">
-        <v>534</v>
-      </c>
-      <c r="D440" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="E440" s="38"/>
-      <c r="F440" s="38" t="s">
-        <v>1053</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="C440" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="D440" s="43"/>
+      <c r="E440" s="43"/>
+      <c r="F440" s="43"/>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B441" s="38" t="s">
-        <v>646</v>
-      </c>
-      <c r="C441" s="38" t="s">
-        <v>536</v>
+        <v>645</v>
+      </c>
+      <c r="C441" s="46" t="s">
+        <v>534</v>
       </c>
       <c r="D441" s="38" t="s">
-        <v>974</v>
+        <v>515</v>
       </c>
       <c r="E441" s="38"/>
       <c r="F441" s="38" t="s">
@@ -12223,72 +12247,74 @@
         <v>54</v>
       </c>
       <c r="B442" s="38" t="s">
-        <v>647</v>
-      </c>
-      <c r="C442" s="43" t="s">
-        <v>984</v>
-      </c>
-      <c r="D442" s="43"/>
-      <c r="E442" s="43"/>
-      <c r="F442" s="43"/>
+        <v>646</v>
+      </c>
+      <c r="C442" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="D442" s="38" t="s">
+        <v>974</v>
+      </c>
+      <c r="E442" s="38"/>
+      <c r="F442" s="38" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B443" s="38" t="s">
-        <v>648</v>
-      </c>
-      <c r="C443" s="38" t="s">
-        <v>547</v>
-      </c>
-      <c r="D443" s="38" t="s">
-        <v>975</v>
-      </c>
-      <c r="E443" s="38"/>
-      <c r="F443" s="38" t="s">
-        <v>1053</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="C443" s="43" t="s">
+        <v>984</v>
+      </c>
+      <c r="D443" s="43"/>
+      <c r="E443" s="43"/>
+      <c r="F443" s="43"/>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B444" s="38">
-        <v>11.5</v>
-      </c>
-      <c r="C444" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="D444" s="43"/>
-      <c r="E444" s="43"/>
-      <c r="F444" s="43"/>
+      <c r="B444" s="38" t="s">
+        <v>648</v>
+      </c>
+      <c r="C444" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="D444" s="38" t="s">
+        <v>975</v>
+      </c>
+      <c r="E444" s="38"/>
+      <c r="F444" s="38" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B445" s="38" t="s">
-        <v>649</v>
-      </c>
-      <c r="C445" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D445" s="38"/>
-      <c r="E445" s="46"/>
-      <c r="F445" s="38" t="s">
-        <v>1053</v>
-      </c>
+      <c r="B445" s="38">
+        <v>11.5</v>
+      </c>
+      <c r="C445" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D445" s="43"/>
+      <c r="E445" s="43"/>
+      <c r="F445" s="43"/>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B446" s="38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C446" s="46" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D446" s="38"/>
       <c r="E446" s="46"/>
@@ -12301,10 +12327,10 @@
         <v>54</v>
       </c>
       <c r="B447" s="38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C447" s="46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D447" s="38"/>
       <c r="E447" s="46"/>
@@ -12316,41 +12342,41 @@
       <c r="A448" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B448" s="38">
-        <v>11.6</v>
-      </c>
-      <c r="C448" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D448" s="43"/>
-      <c r="E448" s="33"/>
-      <c r="F448" s="43"/>
+      <c r="B448" s="38" t="s">
+        <v>651</v>
+      </c>
+      <c r="C448" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D448" s="38"/>
+      <c r="E448" s="46"/>
+      <c r="F448" s="38" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B449" s="38" t="s">
-        <v>652</v>
-      </c>
-      <c r="C449" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D449" s="38"/>
-      <c r="E449" s="46"/>
-      <c r="F449" s="38" t="s">
-        <v>1053</v>
-      </c>
+      <c r="B449" s="38">
+        <v>11.6</v>
+      </c>
+      <c r="C449" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D449" s="43"/>
+      <c r="E449" s="33"/>
+      <c r="F449" s="43"/>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B450" s="38" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C450" s="46" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D450" s="38"/>
       <c r="E450" s="46"/>
@@ -12362,75 +12388,73 @@
       <c r="A451" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B451" s="38">
-        <v>11.7</v>
-      </c>
-      <c r="C451" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D451" s="43"/>
-      <c r="E451" s="43"/>
-      <c r="F451" s="43"/>
+      <c r="B451" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="C451" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D451" s="38"/>
+      <c r="E451" s="46"/>
+      <c r="F451" s="38" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B452" s="38" t="s">
-        <v>654</v>
-      </c>
-      <c r="C452" s="43" t="s">
-        <v>40</v>
+      <c r="B452" s="38">
+        <v>11.7</v>
+      </c>
+      <c r="C452" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="D452" s="43"/>
       <c r="E452" s="43"/>
       <c r="F452" s="43"/>
     </row>
-    <row r="453" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B453" s="38" t="s">
+        <v>654</v>
+      </c>
+      <c r="C453" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D453" s="43"/>
+      <c r="E453" s="43"/>
+      <c r="F453" s="43"/>
+    </row>
+    <row r="454" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A454" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B454" s="38" t="s">
         <v>655</v>
       </c>
-      <c r="C453" s="46" t="s">
+      <c r="C454" s="46" t="s">
         <v>582</v>
       </c>
-      <c r="D453" s="38">
+      <c r="D454" s="38">
         <v>78.3</v>
-      </c>
-      <c r="E453" s="38"/>
-      <c r="F453" s="38" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A454" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B454" s="38" t="s">
-        <v>656</v>
-      </c>
-      <c r="C454" s="46" t="s">
-        <v>613</v>
-      </c>
-      <c r="D454" s="38">
-        <v>78.099999999999994</v>
       </c>
       <c r="E454" s="38"/>
       <c r="F454" s="38" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A455" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B455" s="38" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C455" s="46" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="D455" s="38">
         <v>78.099999999999994</v>
@@ -12445,24 +12469,28 @@
         <v>54</v>
       </c>
       <c r="B456" s="38" t="s">
-        <v>658</v>
-      </c>
-      <c r="C456" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D456" s="43"/>
-      <c r="E456" s="43"/>
-      <c r="F456" s="43"/>
+        <v>657</v>
+      </c>
+      <c r="C456" s="46" t="s">
+        <v>586</v>
+      </c>
+      <c r="D456" s="38">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E456" s="38"/>
+      <c r="F456" s="38" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B457" s="38" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C457" s="43" t="s">
-        <v>555</v>
+        <v>41</v>
       </c>
       <c r="D457" s="43"/>
       <c r="E457" s="43"/>
@@ -12473,31 +12501,27 @@
         <v>54</v>
       </c>
       <c r="B458" s="38" t="s">
-        <v>660</v>
-      </c>
-      <c r="C458" s="46" t="s">
-        <v>661</v>
-      </c>
-      <c r="D458" s="38" t="s">
-        <v>496</v>
-      </c>
-      <c r="E458" s="38"/>
-      <c r="F458" s="38" t="s">
-        <v>1001</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="C458" s="43" t="s">
+        <v>555</v>
+      </c>
+      <c r="D458" s="43"/>
+      <c r="E458" s="43"/>
+      <c r="F458" s="43"/>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B459" s="38" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C459" s="46" t="s">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="D459" s="38" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E459" s="38"/>
       <c r="F459" s="38" t="s">
@@ -12509,83 +12533,83 @@
         <v>54</v>
       </c>
       <c r="B460" s="38" t="s">
-        <v>663</v>
-      </c>
-      <c r="C460" s="38" t="s">
-        <v>664</v>
+        <v>662</v>
+      </c>
+      <c r="C460" s="46" t="s">
+        <v>621</v>
       </c>
       <c r="D460" s="38" t="s">
-        <v>976</v>
+        <v>499</v>
       </c>
       <c r="E460" s="38"/>
       <c r="F460" s="38" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B461" s="38" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C461" s="38" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D461" s="38" t="s">
-        <v>530</v>
+        <v>976</v>
       </c>
       <c r="E461" s="38"/>
       <c r="F461" s="38" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A462" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B462" s="38" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C462" s="38" t="s">
-        <v>991</v>
-      </c>
-      <c r="D462" s="38"/>
+        <v>666</v>
+      </c>
+      <c r="D462" s="38" t="s">
+        <v>530</v>
+      </c>
       <c r="E462" s="38"/>
       <c r="F462" s="38" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B463" s="38" t="s">
-        <v>992</v>
+        <v>667</v>
       </c>
       <c r="C463" s="38" t="s">
-        <v>668</v>
-      </c>
-      <c r="D463" s="38" t="s">
-        <v>505</v>
-      </c>
+        <v>991</v>
+      </c>
+      <c r="D463" s="38"/>
       <c r="E463" s="38"/>
       <c r="F463" s="38" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A464" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B464" s="38" t="s">
-        <v>993</v>
-      </c>
-      <c r="C464" s="41" t="s">
-        <v>990</v>
-      </c>
-      <c r="D464" s="41" t="s">
-        <v>629</v>
+        <v>992</v>
+      </c>
+      <c r="C464" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="D464" s="38" t="s">
+        <v>505</v>
       </c>
       <c r="E464" s="38"/>
       <c r="F464" s="38" t="s">
@@ -12597,45 +12621,45 @@
         <v>54</v>
       </c>
       <c r="B465" s="38" t="s">
-        <v>669</v>
-      </c>
-      <c r="C465" s="43" t="s">
-        <v>532</v>
-      </c>
-      <c r="D465" s="43"/>
-      <c r="E465" s="43"/>
-      <c r="F465" s="43"/>
+        <v>993</v>
+      </c>
+      <c r="C465" s="41" t="s">
+        <v>990</v>
+      </c>
+      <c r="D465" s="41" t="s">
+        <v>629</v>
+      </c>
+      <c r="E465" s="38"/>
+      <c r="F465" s="38" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B466" s="38" t="s">
-        <v>670</v>
-      </c>
-      <c r="C466" s="46" t="s">
-        <v>534</v>
-      </c>
-      <c r="D466" s="38" t="s">
-        <v>515</v>
-      </c>
-      <c r="E466" s="38"/>
-      <c r="F466" s="38" t="s">
-        <v>1001</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="C466" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="D466" s="43"/>
+      <c r="E466" s="43"/>
+      <c r="F466" s="43"/>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B467" s="38" t="s">
-        <v>671</v>
-      </c>
-      <c r="C467" s="38" t="s">
-        <v>536</v>
+        <v>670</v>
+      </c>
+      <c r="C467" s="46" t="s">
+        <v>534</v>
       </c>
       <c r="D467" s="38" t="s">
-        <v>974</v>
+        <v>515</v>
       </c>
       <c r="E467" s="38"/>
       <c r="F467" s="38" t="s">
@@ -12647,81 +12671,81 @@
         <v>54</v>
       </c>
       <c r="B468" s="38" t="s">
-        <v>672</v>
-      </c>
-      <c r="C468" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="D468" s="43"/>
-      <c r="E468" s="43"/>
-      <c r="F468" s="43"/>
+        <v>671</v>
+      </c>
+      <c r="C468" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="D468" s="38" t="s">
+        <v>974</v>
+      </c>
+      <c r="E468" s="38"/>
+      <c r="F468" s="38" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B469" s="38" t="s">
-        <v>673</v>
-      </c>
-      <c r="C469" s="46" t="s">
-        <v>509</v>
-      </c>
-      <c r="D469" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="E469" s="38"/>
-      <c r="F469" s="38" t="s">
-        <v>1001</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="C469" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="D469" s="43"/>
+      <c r="E469" s="43"/>
+      <c r="F469" s="43"/>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B470" s="38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C470" s="46" t="s">
-        <v>576</v>
+        <v>509</v>
       </c>
       <c r="D470" s="38" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E470" s="38"/>
       <c r="F470" s="38" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B471" s="38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C471" s="46" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="D471" s="38" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E471" s="38"/>
       <c r="F471" s="38" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A472" s="39" t="s">
         <v>54</v>
       </c>
       <c r="B472" s="38" t="s">
-        <v>676</v>
-      </c>
-      <c r="C472" s="38" t="s">
-        <v>545</v>
+        <v>675</v>
+      </c>
+      <c r="C472" s="46" t="s">
+        <v>543</v>
       </c>
       <c r="D472" s="38" t="s">
-        <v>977</v>
+        <v>515</v>
       </c>
       <c r="E472" s="38"/>
       <c r="F472" s="38" t="s">
@@ -12733,16 +12757,34 @@
         <v>54</v>
       </c>
       <c r="B473" s="38" t="s">
-        <v>1146</v>
+        <v>676</v>
       </c>
       <c r="C473" s="38" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D473" s="38" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="E473" s="38"/>
       <c r="F473" s="38" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A474" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B474" s="38" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C474" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="D474" s="38" t="s">
+        <v>975</v>
+      </c>
+      <c r="E474" s="38"/>
+      <c r="F474" s="38" t="s">
         <v>1001</v>
       </c>
     </row>

--- a/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93936CD9-E3DF-4D4D-A53B-FBD28887D32D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5F83D4-8357-4C30-8DC6-FCAD5F06A899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="348" yWindow="348" windowWidth="23040" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -4060,7 +4060,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4258,6 +4258,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4651,7 +4654,7 @@
   <dimension ref="A1:F474"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A312" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D326" sqref="D326"/>
+      <selection activeCell="F323" sqref="A316:F323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10035,10 +10038,10 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B312" s="38" t="s">
+      <c r="A312" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B312" s="52" t="s">
         <v>1191</v>
       </c>
       <c r="C312" s="33" t="s">
@@ -10049,10 +10052,10 @@
       <c r="F312" s="43"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A313" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B313" s="38" t="s">
+      <c r="A313" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B313" s="52" t="s">
         <v>451</v>
       </c>
       <c r="C313" s="43" t="s">
@@ -10081,10 +10084,10 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A315" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B315" s="38" t="s">
+      <c r="A315" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B315" s="52" t="s">
         <v>455</v>
       </c>
       <c r="C315" s="43" t="s">

--- a/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_Carillon_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance-0.2.3-beta\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C7C6D7-BA06-4B37-ABB2-A110EABD8834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDACD71-4902-4A1A-992E-76CA5C639D6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="20112" windowHeight="12948" tabRatio="536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="1452" windowWidth="22920" windowHeight="12948" tabRatio="536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="PKIX" sheetId="8" r:id="rId7"/>
     <sheet name="Placeholders" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -4657,7 +4657,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A441" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F469" sqref="F469"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10732,7 +10734,7 @@
       </c>
       <c r="E352" s="52"/>
       <c r="F352" s="44" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -11276,7 +11278,7 @@
       </c>
       <c r="E384" s="52"/>
       <c r="F384" s="44" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11630,7 +11632,7 @@
       </c>
       <c r="E405" s="52"/>
       <c r="F405" s="44" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -12622,7 +12624,7 @@
       </c>
       <c r="E465" s="44"/>
       <c r="F465" s="44" t="s">
-        <v>1023</v>
+        <v>972</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
